--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -151,6 +151,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,6 +174,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -260,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,7 +275,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,15 +287,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,7 +303,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +311,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,7 +395,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,182 +508,182 @@
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>29.0024767576436</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>18.0502903890369</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>1.40842480700943</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4.06656369623178</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>7.21038355794301</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>1.82021460121638</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>1.85032547775028</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>7.8607670770402</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>3.09137362443181</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.972657067658273</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>3.90087837359243</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>2.36470947428501</v>
-      </c>
-      <c r="P2" s="6" t="n">
-        <v>7.91218231898922</v>
-      </c>
-      <c r="Q2" s="6" t="n">
-        <v>0.331072046224673</v>
-      </c>
-      <c r="R2" s="6" t="n">
-        <v>6.75736306215955</v>
-      </c>
-      <c r="S2" s="6" t="n">
-        <v>3.95184050554866</v>
-      </c>
-      <c r="T2" s="6" t="n">
-        <v>2.13791114772397</v>
-      </c>
-      <c r="U2" s="6" t="n">
-        <v>9.49076106043911</v>
-      </c>
-      <c r="V2" s="6" t="n">
-        <v>1.22873727996106</v>
-      </c>
-      <c r="W2" s="6" t="n">
-        <v>4.50727547001339</v>
-      </c>
-      <c r="X2" s="6" t="n">
-        <v>0.986164374050169</v>
-      </c>
-      <c r="Y2" s="6" t="n">
-        <v>7.31509100188352</v>
-      </c>
-      <c r="Z2" s="6" t="n">
-        <v>3.238797158301</v>
-      </c>
-      <c r="AA2" s="6" t="n">
-        <v>4.8387294804073</v>
-      </c>
-      <c r="AB2" s="6" t="n">
-        <v>9.16132257726823</v>
-      </c>
-      <c r="AC2" s="6" t="n">
-        <v>0.777870903438685</v>
-      </c>
-      <c r="AD2" s="6" t="n">
-        <v>4.22700866344227</v>
+      <c r="D2" s="0" t="n">
+        <v>29.5315257271559</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>18.3359212187051</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.41533798152895</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6.20645045065645</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>6.70210319954932</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>5.15338828170403</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>4.38767101100559</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>6.71220309151633</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.389479869234458</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3.64349935158174</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>4.07462126331932</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>4.22584330518771</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>7.77739328918593</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1.65894838680892</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>6.7599718878231</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>6.58873485847488</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0.628960446343316</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>7.00459582705544</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.390775692922477</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>6.21307881517699</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>3.87862920258303</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>7.18011887612049</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0.723861548027948</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>4.62121766615526</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>3.67652099548443</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>1.37807212993455</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>0.0238605541483145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>29.0024767576436</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>11.2799158497602</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>2.25378248350887</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>4.06656369623178</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>7.21038355794301</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>1.82021460121638</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>1.85032547775028</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>7.8607670770402</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>3.09137362443181</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0.972657067658273</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>3.90087837359243</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>2.36470947428501</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>7.91218231898922</v>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>0.331072046224673</v>
-      </c>
-      <c r="R3" s="6" t="n">
-        <v>6.75736306215955</v>
-      </c>
-      <c r="S3" s="6" t="n">
-        <v>3.95184050554866</v>
-      </c>
-      <c r="T3" s="6" t="n">
-        <v>2.13791114772397</v>
-      </c>
-      <c r="U3" s="6" t="n">
-        <v>9.49076106043911</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>1.22873727996106</v>
-      </c>
-      <c r="W3" s="6" t="n">
-        <v>4.50727547001339</v>
-      </c>
-      <c r="X3" s="6" t="n">
-        <v>0.986164374050169</v>
-      </c>
-      <c r="Y3" s="6" t="n">
-        <v>7.31509100188352</v>
-      </c>
-      <c r="Z3" s="6" t="n">
-        <v>3.238797158301</v>
-      </c>
-      <c r="AA3" s="6" t="n">
-        <v>4.8387294804073</v>
-      </c>
-      <c r="AB3" s="6" t="n">
-        <v>9.16132257726823</v>
-      </c>
-      <c r="AC3" s="6" t="n">
-        <v>0.777870903438685</v>
-      </c>
-      <c r="AD3" s="6" t="n">
-        <v>4.22700866344227</v>
+      <c r="D3" s="0" t="n">
+        <v>28.8076276825924</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>11.1060147488929</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2.27152837926018</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7.08314854804983</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5.59347969383231</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5.47230378954019</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2.97917151323934</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>3.40578705316314</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1.30911851459901</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.467921989060849</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1.56171870441636</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.716965461751605</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>8.38386214871565</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.183703993727076</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.0702797793077361</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>6.88489074009099</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1.20001358713484</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>8.62945179627319</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1.79785877064447</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>8.15953145084381</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>8.05752327494296</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>6.77060233669645</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>4.17294350946657</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>3.62149804493646</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>5.53572367786976</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>0.395605338425113</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>7.54689628327227</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -773,7 +771,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -860,179 +858,179 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.279004716963325</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.181111190804886</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="11" t="n">
         <v>1.3428475395832</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.0279233758435109</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="11" t="n">
         <v>0.0588457801956114</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="11" t="n">
         <v>0.0485383120782446</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="11" t="n">
         <v>0.079460716430345</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="11" t="n">
         <v>0.0588457801956114</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>0.0124621736674607</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>0.0124621736674607</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>0.079460716430345</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>0.053692046136928</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>0.0639995142542948</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>0.00730843960877726</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>0.0639995142542948</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>0.0433845780195611</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>0.0330771099021943</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="11" t="n">
         <v>0.0691532483129782</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="11" t="n">
         <v>0.0124621736674607</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="11" t="n">
         <v>0.0588457801956114</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="11" t="n">
         <v>0.053692046136928</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="11" t="n">
         <v>0.0691532483129782</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="11" t="n">
         <v>0.0124621736674607</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>0.0382308439608777</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>0.00730843960877726</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="11" t="n">
         <v>0.0227696417848275</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="11" t="n">
         <v>0.0124621736674607</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.280675362810934</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.115338965607968</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="11" t="n">
         <v>2.12309310665446</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.0555594400027944</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="11" t="n">
         <v>0.0700562469622321</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="11" t="n">
         <v>0.00723675013800217</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="11" t="n">
         <v>0.0362303640568775</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="11" t="n">
         <v>0.0748885159487114</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="11" t="n">
         <v>0.0169012881109606</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="11" t="n">
         <v>0.00723675013800217</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="11" t="n">
         <v>0.0700562469622321</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="11" t="n">
         <v>0.0362303640568775</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="11" t="n">
         <v>0.0555594400027944</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="11" t="n">
         <v>0.0313980950703983</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="11" t="n">
         <v>0.0700562469622321</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="11" t="n">
         <v>0.0313980950703983</v>
       </c>
-      <c r="T7" s="12" t="n">
+      <c r="T7" s="11" t="n">
         <v>0.0169012881109606</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="11" t="n">
         <v>0.0603917089892737</v>
       </c>
-      <c r="V7" s="12" t="n">
+      <c r="V7" s="11" t="n">
         <v>0.0169012881109606</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="11" t="n">
         <v>0.0169012881109606</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="11" t="n">
         <v>0.0313980950703983</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="11" t="n">
         <v>0.0603917089892737</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="11" t="n">
         <v>0.045894902029836</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="11" t="n">
         <v>0.0555594400027944</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="11" t="n">
         <v>0.0748885159487114</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="11" t="n">
         <v>0.045894902029836</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="11" t="n">
         <v>0.0120690191244814</v>
       </c>
     </row>
@@ -1045,10 +1043,10 @@
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -1136,7 +1134,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -1223,10 +1221,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -1314,7 +1312,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -1401,10 +1399,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="0" t="n">
@@ -1492,7 +1490,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -1581,10 +1579,10 @@
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -1672,7 +1670,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -1759,10 +1757,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -1850,7 +1848,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -1937,10 +1935,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -2028,7 +2026,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -2117,188 +2115,188 @@
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>29.0478770492159</v>
+        <v>30.3416752001811</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>17.3472983585514</v>
+        <v>18.5216152693616</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1.4681177738931</v>
+        <v>1.44488883993019</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.30281904751044</v>
+        <v>7.80748759523618</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>5.14074493436141</v>
+        <v>9.39020151357114</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1.0004358677609</v>
+        <v>6.55646044558917</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>1.2514582083911</v>
+        <v>0.167130500260165</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>3.36175604423326</v>
+        <v>8.59694753679989</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.790444306052657</v>
+        <v>0.918068897467656</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>4.16338139022367</v>
+        <v>2.8214401635608</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.857683198857532</v>
+        <v>0.0386319805673913</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.208717842289736</v>
+        <v>2.99839412997562</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>9.33482745524778</v>
+        <v>8.6271428945779</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0.0244490903490445</v>
+        <v>0.0666231031075315</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>3.76350935177688</v>
+        <v>6.72399607822237</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>7.1732859331926</v>
+        <v>3.49300037883041</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0.344839324310678</v>
+        <v>3.31484926608195</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>9.28490165406366</v>
+        <v>2.9495064093851</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>0.0179984894962184</v>
+        <v>0.782916750859333</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>9.49589363728897</v>
+        <v>0.8863518061589</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>10.8614597372903</v>
+        <v>9.48346220216886</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>7.43963626979182</v>
+        <v>4.47075454714558</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>0.696184505217197</v>
+        <v>3.87735795285736</v>
       </c>
       <c r="AA23" s="0" t="n">
-        <v>2.24262912457608</v>
+        <v>3.62574746993319</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <v>9.62942816696333</v>
+        <v>9.27899134852055</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>1.80301720006853</v>
+        <v>1.2141243170648</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>9.81049922068618</v>
+        <v>1.91041271205817</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>29.0478770492159</v>
+        <v>28.3948828905734</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10.6932729581515</v>
+        <v>10.8702938826816</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2.38167277211434</v>
+        <v>2.28281619231179</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.30281904751044</v>
+        <v>3.79306978909078</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>5.14074493436141</v>
+        <v>5.50865489969282</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1.0004358677609</v>
+        <v>0.9605892428395</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>1.2514582083911</v>
+        <v>7.75670054367576</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>3.36175604423326</v>
+        <v>7.15768679657684</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.790444306052657</v>
+        <v>1.10886336456762</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>4.16338139022367</v>
+        <v>4.36796130301635</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.857683198857532</v>
+        <v>7.90148134818476</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.208717842289736</v>
+        <v>1.09159385850885</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>9.33482745524778</v>
+        <v>7.76767970933045</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.0244490903490445</v>
+        <v>0.189820703849458</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>3.76350935177688</v>
+        <v>3.32009532942929</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>7.1732859331926</v>
+        <v>6.70962641976722</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>0.344839324310678</v>
+        <v>0.0444691406278119</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>9.28490165406366</v>
+        <v>6.75168835832299</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>0.0179984894962184</v>
+        <v>2.45375510829886</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>9.49589363728897</v>
+        <v>2.44641981532173</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>10.8614597372903</v>
+        <v>3.10695880204055</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>7.43963626979182</v>
+        <v>6.38059325347126</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>0.696184505217197</v>
+        <v>4.8923240544853</v>
       </c>
       <c r="AA24" s="0" t="n">
-        <v>2.24262912457608</v>
+        <v>2.62323086879056</v>
       </c>
       <c r="AB24" s="0" t="n">
-        <v>9.62942816696333</v>
+        <v>7.17034005156247</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>1.80301720006853</v>
+        <v>0.918950197414887</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>9.81049922068618</v>
+        <v>5.57744704113389</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="0" t="n">
@@ -2386,7 +2384,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="0" t="n">
@@ -2473,17 +2471,17 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">6-Jan-2016 :: 5-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jan-2016 :: 6-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,6 +2114,7 @@
         <v>0.0687159617793692</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="40.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>38</v>
@@ -2477,6 +2481,87 @@
       <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>0.283162701006063</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.201338802834594</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1.22858931077125</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.0203042180212342</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.0383994686385416</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.05046296905008</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.0263359682270033</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.0685582196673875</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0.0625264694616183</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.0082407176096958</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.0203042180212342</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.0745899698731566</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.0383994686385416</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0.0383994686385416</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0.014272467815465</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>0.086653470284695</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0.0323677184327725</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.0625264694616183</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0.0263359682270033</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>0.0444312188443108</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>0.0444312188443108</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>0.086653470284695</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0.05046296905008</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0.0082407176096958</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>0.014272467815465</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>0.0685582196673875</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>0.014272467815465</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
@@ -2484,9 +2569,464 @@
       <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>0.296575014483993</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.118082387571599</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2.20841583446027</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.023372350474686</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.10974551544666</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.0305701142223505</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.0305701142223505</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.037767877970015</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0.023372350474686</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.037767877970015</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.037767877970015</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.0089768229793569</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.0665589329606731</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>0.0665589329606731</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0.037767877970015</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0.0305701142223505</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0.0161745867270214</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0.0881522242036667</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0.0161745867270214</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>0.0737566967083376</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>0.037767877970015</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0.0305701142223505</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>0.0809544604560022</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0.0089768229793569</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0.0521634054653441</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>0.0089768229793569</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>0.0449656417176795</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>30.2204293407965</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>18.1558238881115</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1.46732142286535</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>9.65037770648514</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>9.37328314047835</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1.79793241463865</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.795769988227727</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.372722757997341</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1.7531591609986</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>8.42483726882791</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>3.97057490730702</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.83925810986155</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>4.26058595875672</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>0.0364018471011597</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>7.51690002335062</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>7.17515926429862</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0.400429733796592</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>11.0539283826255</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>1.3502592518115</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>6.76719217181082</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1.86771307632115</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>7.88232284502995</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>2.31904687267612</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>4.97155563413005</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>5.28947228981434</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>0.0594444026672131</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>2.07167279098741</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>28.6869076790226</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>10.7428895282941</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2.33707212690749</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>5.40046588702057</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>4.27356474510871</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2.5077945859135</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>3.09381729531344</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>6.38317052168214</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>2.18925387744998</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>8.98815736004514</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>5.36778084320132</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>3.09621957106184</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>7.10768531941774</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0.0543022141357587</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>2.45033086114254</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>5.53528266073468</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1.75668640098565</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>9.12947437681537</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>0.802269189110464</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>3.85541565786196</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>8.07803917570193</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>7.3718675584697</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>0.959844059972297</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0.257425115386515</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>5.44800674715307</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>1.36219100124149</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>4.53095497507419</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>18.3357574154983</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1.45180803807425</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2.17155320485299</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>11.0958344964613</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>3.61275110664987</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>2.70921208809412</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>3.74388993451832</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1.06066703463426</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>6.64056267654443</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>10.4263832832926</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>3.95612037018716</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>1.510395625931</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0.611783795594187</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1.06859531209699</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>2.38203785549452</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>1.55758332696885</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>15.0174075306783</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.798851353632675</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>14.8251724730856</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>0.92992377665188</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>0.406065774299128</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>3.03033336513067</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>0.819636537517313</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>4.18317533099094</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>2.30531100518008</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>5.13675274151288</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>12.0747670784989</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2.27085125714979</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>23.9134679346081</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>15.2656429245468</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.716640486853614</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>8.48063827830448</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>2.00063910627838</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.0239325936413049</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1.21772345322695</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.124069000776413</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>3.56567375516721</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>6.65091435056772</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1.23064897230214</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0.264165869797519</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0.407769148287989</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>1.60416155665046</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>1.63193138286668</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>1.16359482097876</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>20.4289171738346</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>2.36969158461174</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>0.999102658560834</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>1.62231608894497</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>1.20261166919349</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0.511647003941541</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>2.66069972324897</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>1.94340046280933</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -2503,6 +3043,10 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">7-Jan-2016 :: 6-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Jan-2016 :: 7-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3025,8 +3028,382 @@
         <v>33</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>29.3835376580014</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>17.719533768604</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1.45621989804951</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2.8401587000681</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>6.9628007630853</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>4.28442043112754</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>2.55465963998268</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>7.82061704303467</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.14935983281798</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>9.04523013960718</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>2.4605414793341</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>2.63691518133205</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>5.35161980724609</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>1.11909785347891</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>5.92994158749161</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>2.38766071009967</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1.45926160769788</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>3.74434555777137</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.915351208217588</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>9.44395587802283</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>8.46058118583972</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>7.66256398312449</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>0.1665872738048</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>0.603758506956849</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <v>6.65280735056821</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <v>1.92775944360194</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <v>5.42000483568845</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>30.5268165699694</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>11.616707475663</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2.31966042240653</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>6.02249276516474</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>8.47720223096306</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>4.85283424798499</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>3.84056855186565</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>2.49153965834089</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0.670632756246172</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>1.24747858990165</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>5.4704593694528</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>4.32524387709977</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>7.48709105822475</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0.707589925219238</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>2.0487872696163</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>4.04848964341325</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0.0904522709183136</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>8.08381615795677</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>3.96798421868443</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>8.79700208858593</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>4.9705888829398</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>6.41866648844545</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>4.60116072087233</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>0.518750740424009</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <v>7.9360813274762</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <v>0.867491217557508</v>
+      </c>
+      <c r="AD39" s="0" t="n">
+        <v>2.05759594264602</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>17.8885438199983</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1.40984085981362</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.227509410207713</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>11.7399060855447</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.580882923558929</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>8.96588452417452</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>2.93697282019851</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2.09668392109204</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>8.82697051487464</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>18.5455319755054</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.961675586014997</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>7.71002905358488</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>0.129010244836969</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>0.0133902191114465</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>2.93204243887695</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>4.10046519946671</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>7.69847090485439</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>1.4748551806485</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>0.348560308015893</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>4.12033278602222</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>1.75960121490938</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>0.292881170523793</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>1.06304360597416</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>11.5268607735217</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>1.09245161713521</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <v>0.855987521346332</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>11.6275534829989</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2.28938959850171</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2.6569208667856</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>7.45181052796176</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>10.7459695601984</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>2.44797199903069</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1.3023077053619</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>5.11600331728191</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>6.99989873158132</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.972635935450368</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>1.90716900911576</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>17.3964788549832</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>0.348705270320119</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1.07274093988888</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0.648931748930941</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>3.47701687007473</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>9.44086922459458</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0.889158989965562</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>0.299414480173068</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>0.226735822947277</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>7.64815173670969</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>1.12874807800403</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>0.612597631014368</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>14.2502716919244</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>0.630450079369199</v>
+      </c>
+      <c r="AD41" s="0" t="n">
+        <v>2.3290409283321</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+      <c r="B42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -3047,6 +3424,10 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">8-Jan-2016 :: 7-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-Jan-2016 :: 8-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,6 +3023,87 @@
       <c r="C35" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>0.277266301365965</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.173201621619599</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1.39413418366426</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.0120425544485399</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.0675877648575276</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.0509242017348313</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.0731422858984264</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.0842513279802239</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.0287061175712362</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0.0175970754894386</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.0453696806939325</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.0064880334076411</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.0786968069393251</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0.034260638612135</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0.0287061175712362</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0.0231515965303374</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.0287061175712362</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.0675877648575276</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.0731422858984264</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0.0675877648575276</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>0.0731422858984264</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>0.0175970754894386</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.0175970754894386</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.0120425544485399</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.0398151596530337</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>0.034260638612135</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0.0175970754894386</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
@@ -3027,6 +3111,87 @@
       <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>0.296449698867618</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.117000318861085</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2.22776913263876</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.0265713223751057</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.0809145618247252</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.0809145618247252</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.0205331846584813</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.092990837257974</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>0.0084569092252325</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.0567620109582276</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.0084569092252325</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.0688382863914764</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.0688382863914764</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0.0205331846584813</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0.0144950469418569</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>0.0265713223751057</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.0446857355249789</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.092990837257974</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.0144950469418569</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>0.0326094600917301</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>0.0688382863914764</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>0.0326094600917301</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.0326094600917301</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0.0144950469418569</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>0.0326094600917301</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>0.0144950469418569</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>0.0446857355249789</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -3402,8 +3567,382 @@
         <v>33</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>28.7912743749979</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>17.1590145594303</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1.46927285874597</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>8.36492748924815</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>5.2305622858602</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.362237922125755</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.0699519581354754</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>9.135775378729</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>2.98874291159809</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>3.44052056994416</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>6.34473879344505</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>2.83452029233221</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>4.82366758664094</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>0.23805774144689</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>8.0704084980604</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>5.97346817011895</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0.949130559098211</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>7.431532925744</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>7.7741005449831</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>5.34837247958806</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>5.87712567095209</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <v>2.77931334132589</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <v>2.30095770547885</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>0.204570574262696</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <v>8.2239039849931</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <v>0.562941911492164</v>
+      </c>
+      <c r="AD46" s="0" t="n">
+        <v>0.670470704396561</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>28.8872691652035</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>10.800569530911</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2.34314209938418</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>6.0500059946975</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>4.37269564744576</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.679656686747233</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1.40472622166831</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>10.4127810844662</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0.136956836000136</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>8.99509257154114</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>3.40853855643468</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1.71706134809098</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.0580946224234806</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>0.0405759395938576</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>9.07843472774228</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>4.69331422569514</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1.00080438406056</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>9.50795536774536</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>6.23585036352418</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>8.97638604661072</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>4.07486100631305</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <v>0.952294467267965</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <v>8.15157676761651</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>1.42338506150269</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <v>6.77840997261876</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <v>0.00589705511466785</v>
+      </c>
+      <c r="AD47" s="0" t="n">
+        <v>1.84464504507878</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>17.8885438199983</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1.49928357891361</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.00173230897289656</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>7.76636684452663</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>2.99779720107134</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.368038440793193</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>12.6902468895362</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.0377748486119737</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>14.8573390978755</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.321536321802837</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.491909504354337</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>1.50057180141792</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0.502567263670939</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>5.93333680128872</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>1.24450692681467</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0.0140648691014524</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>33.5371207840593</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>0.112812934397808</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>2.5719120115119</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>0.063205703733502</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>0.402703460204544</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>7.09216548754377</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>1.07293259428968</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>3.49832193875096</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>1.34305780287283</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>1.57797816279708</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>10.285912696499</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2.43245307813238</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1.97051288265975</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.119251779709261</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>2.73799916584968</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.00423570416521899</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.88946312536333</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.0247285346201694</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.33693073665095</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>2.60144959947443</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.755972295336429</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0.0777710179858435</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>0.142670595565792</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0.0702307728699011</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>2.16845759525134</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>3.62621409924474</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>47.5535839683761</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>0.00172756921498319</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>10.2907654225813</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>16.9887010258309</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>0.631257183011999</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>0.265064200622822</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>0.347090101746908</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <v>5.85857558261017</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <v>0.618250258152685</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <v>1.9190967831052</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -3428,6 +3967,10 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">11-Jan-2016 :: 8-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Jan-2016 ::11-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-Jan-2016 ::12-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3559,6 +3565,87 @@
       <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>0.272152039197517</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.179045789084841</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1.32006477452269</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.0374275345557518</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.0374275345557518</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.0616511466181222</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.0374275345557518</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.0616511466181222</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.00835920008090737</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.0471169793807</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.0616511466181222</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.0277380897308037</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.0374275345557518</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0.0664958690305963</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>0.0132039224933814</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0.0132039224933814</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.0422722569682259</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.0713405914430704</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.0761853138555445</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>0.0471169793807</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>0.00835920008090737</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>0.0519617017931741</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0.0471169793807</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>0.0422722569682259</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <v>0.0471169793807</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <v>0.0180486449058555</v>
+      </c>
+      <c r="AD42" s="0" t="n">
+        <v>0.0374275345557518</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
@@ -3566,6 +3653,87 @@
       <c r="C43" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>0.287678524946674</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.114581036520655</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2.19825664521081</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.06096346479164</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.06096346479164</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.00789726994796333</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.0706118638541267</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.01754566901045</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.0223698685416933</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.00789726994796333</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.0223698685416933</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0.0271940680729367</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0.0513150657291533</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0.0513150657291533</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.0223698685416933</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.06096346479164</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.06096346479164</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>0.06096346479164</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>0.0706118638541267</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>0.0706118638541267</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>0.04649086619791</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <v>0.0127214694792067</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <v>0.04649086619791</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <v>0.03201826760418</v>
+      </c>
+      <c r="AD43" s="0" t="n">
+        <v>0.03201826760418</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
@@ -3933,6 +4101,87 @@
       <c r="C50" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>0.277704103294001</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.174653269583724</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1.38505339104481</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.0674312451359242</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.0328036516732421</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.0624844460698267</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.0328036516732421</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.0525908479376319</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.0080696563427549</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0.0476440488715344</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.0377504507393395</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.0328036516732421</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0.0674312451359242</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>0.0674312451359242</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0.0674312451359242</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0.0130164554088523</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>0.0525908479376319</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>0.0575376470037293</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>0.0278568526071447</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>0.0377504507393395</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <v>0.0674312451359242</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <v>0.0377504507393395</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <v>0.0080696563427549</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>0.0328036516732421</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <v>0.042697249805437</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <v>0.0229100535410472</v>
+      </c>
+      <c r="AD50" s="0" t="n">
+        <v>0.0229100535410472</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
@@ -3940,9 +4189,676 @@
       <c r="C51" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>0.285573266299064</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.113608973794222</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2.19853465758326</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.0487337500760277</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.0624859123861356</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.0212294254558119</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.0716540205928742</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.0349815877659198</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.0120613172490733</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0.0441496959726584</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.0579018582827663</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.0670699664895049</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0.053317804179397</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>0.0120613172490733</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0.0487337500760277</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>0.053317804179397</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>0.007477263145704</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>0.0670699664895049</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>0.0579018582827663</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>0.007477263145704</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>0.0212294254558119</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <v>0.0487337500760277</v>
+      </c>
+      <c r="Z51" s="0" t="n">
+        <v>0.0212294254558119</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>0.0624859123861356</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <v>0.0670699664895049</v>
+      </c>
+      <c r="AC51" s="0" t="n">
+        <v>0.0212294254558119</v>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <v>0.0303975336625505</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>31.3530517605278</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>18.6438521102476</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1.48966273687948</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.934151148613368</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>9.34390427460155</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>3.22782308144026</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>2.05556885938267</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>6.53006557622588</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0.31221558784557</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>2.60689052382302</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>6.97026230866327</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>7.10058579512174</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>6.15065780878143</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>0.326409415746293</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>7.37600731259888</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>1.98266847867229</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0.858644412484795</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>7.70560189729687</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>1.30800053941363</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>9.40071283177711</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <v>4.51839353590673</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <v>7.79915923603643</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <v>0.804530132276624</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>1.77106330171948</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <v>7.03407602650947</v>
+      </c>
+      <c r="AC54" s="0" t="n">
+        <v>3.71495737678389</v>
+      </c>
+      <c r="AD54" s="0" t="n">
+        <v>0.167650538278743</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>28.2533018388073</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>10.4217869117057</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2.36747326037673</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>7.8818146106096</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>5.17394612699275</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>4.28753128775709</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>2.35956045145729</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>8.78718127422313</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>3.72170058309106</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>7.01934032396696</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1.96855777889617</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>2.94360624961293</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>9.59107717277685</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>0.472101496807042</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>5.66959693565406</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>2.62067139212274</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0.268006296471375</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>8.80344796316723</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>6.3292354542011</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>0.796095997273285</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>2.60503737144795</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <v>4.26634885327642</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>1.13029211893308</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>0.137519932550227</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <v>4.25545538075225</v>
+      </c>
+      <c r="AC55" s="0" t="n">
+        <v>0.215420156193909</v>
+      </c>
+      <c r="AD55" s="0" t="n">
+        <v>8.69645479176551</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
+      <c r="B56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>17.8885438199983</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1.42102119970112</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>5.55041225623147</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>5.53495805325511</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>4.93812862108911</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>2.01056669852668</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>7.03767123644475</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>4.75430083996325</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>4.05970386841404</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.967977051677715</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>2.14674275235981</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>4.43168928438078</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>1.94933526657371</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>4.5009963990915</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>5.35739259013857</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>3.49686345527435</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>4.00990167551159</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>2.61705865691164</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>3.38681238381534</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>7.61190459000075</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <v>6.70939998966127</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <v>3.0765323102665</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>5.80500936672442</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <v>4.78035464605055</v>
+      </c>
+      <c r="AC56" s="0" t="n">
+        <v>1.39661464339003</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <v>3.8696733642471</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>11.180339887499</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>2.25574537570179</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>12.6030738273737</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>10.8315272558895</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1.76102040502283</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>4.06203198083004</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>2.2785434730756</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>2.95575153786809</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>4.53476715571301</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>1.9499148453978</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>1.92146429867398</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>18.2353067157067</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>1.75890204530047</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1.53064574928252</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>2.98288079429359</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>4.24899660875453</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>3.84657747771355</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>2.85825551977275</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>2.43457401567579</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>2.14344386661536</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <v>2.5499693886088</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <v>3.62501204020446</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>2.13478236368102</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <v>2.23530946124074</v>
+      </c>
+      <c r="AC57" s="0" t="n">
+        <v>2.4759395014321</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <v>4.04130967187299</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
+      <c r="B58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.299867537496831</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.182955360984761</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1.44334408172289</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.0781649748685756</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.0189785291357503</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.0248971737090328</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.0248971737090328</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0.0189785291357503</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.060409041148728</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.00714123998918526</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0.0900022640151406</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0.0544903965754455</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>0.0663276857220105</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>0.0130598845624678</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>0.0781649748685756</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>0.0189785291357503</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <v>0.0248971737090328</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <v>0.0900022640151406</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>0.060409041148728</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <v>0.0722463302952931</v>
+      </c>
+      <c r="AC58" s="0" t="n">
+        <v>0.0130598845624678</v>
+      </c>
+      <c r="AD58" s="0" t="n">
+        <v>0.0308158182823154</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.291916723672116</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.114715431089859</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2.23262660689036</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.0433530971251499</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.0523473929037274</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.0208673576787064</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.00737591401084023</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.0388559492358612</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.0253645055679951</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0.0388559492358612</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0.0568445407930161</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0.0433530971251499</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0.0613416886823048</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>0.0163702097894177</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0.0478502450144387</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>0.0613416886823048</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0.0388559492358612</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0.0703359844608822</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>0.0388559492358612</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>0.0568445407930161</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <v>0.00737591401084023</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <v>0.0613416886823048</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <v>0.0613416886823048</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>0.0118730619001289</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <v>0.0658388365715935</v>
+      </c>
+      <c r="AC59" s="0" t="n">
+        <v>0.0253645055679951</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <v>0.0478502450144387</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="36">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -3971,6 +4887,14 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -409,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O53" activeCellId="0" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4817,12 +4817,174 @@
       <c r="C62" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D62" s="0" t="n">
+        <v>30.8065005496621</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>18.3235638402864</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1.48587364264814</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>3.38736169643422</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>7.22836287160122</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>5.68850592330466</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1.69042295499445</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>7.70843919909819</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1.71140965976667</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>3.39922804977014</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>7.00220234869507</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>4.8138360159152</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>4.97438446031085</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>1.7650820655677</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>2.99463947219974</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>5.65786980649787</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>0.699428593269483</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>8.31986307821657</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>0.83127114629181</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>7.286464905496</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>6.73126060565883</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>5.52455859551087</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <v>1.12055597256924</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>1.03599378559635</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>5.99033159127485</v>
+      </c>
+      <c r="AC62" s="0" t="n">
+        <v>0.946337911090732</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>3.49218929086928</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="9" t="s">
         <v>33</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>29.7646831807258</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>10.9628921350145</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>2.38848315373771</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>5.45515148175079</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>7.57615495496976</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1.48467493596102</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>4.28025844769084</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>8.07959382583051</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0.442204673020949</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>7.76837677694902</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1.50890927844785</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>2.50702870168856</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>7.55194366328403</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>3.66098385830147</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1.99529554013448</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>0.846040761153155</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>1.44233184978336</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>9.44522819229447</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>4.65081393571887</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>6.36334935630279</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>3.31728764119047</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <v>8.08087661453601</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>5.26635127691966</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>0.0328437500562851</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <v>4.46227343831999</v>
+      </c>
+      <c r="AC63" s="0" t="n">
+        <v>0.547128158129538</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <v>3.23489888756611</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="day sliding" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hyperparameters" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -153,6 +154,24 @@
   <si>
     <t xml:space="preserve">13-Jan-2016 ::12-Jan-2021</t>
   </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Jan-2016 :: 11-Jan-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,6 +209,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -277,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,6 +352,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,8 +441,8 @@
   </sheetPr>
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O53" activeCellId="0" sqref="O53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5066,4 +5098,345 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>1.4165359383584</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.656879683382368</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.296208323</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.266721012</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.381976675</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.28745091</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1.42819</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.2057274</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.167759</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.25148088625685</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.657398980718365</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.0707567792738323</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.43585403712871</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.148649534618414</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.101680260367223</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2.28873244075679</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.369001234949499</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.0415791490841295</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1.41703767978403</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.429924027279544</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.406277680504592</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2.23490748035472</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.570553822667481</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.0916992178309636</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1.45779702286026</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.10872391909261</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.467258240360294</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2.31648027328392</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.531498624309314</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.159530691359435</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="day sliding" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hyperparameters" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hyperparameterACOs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSOhyps" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -180,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,11 +210,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -301,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,11 +350,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,7 +433,7 @@
   </sheetPr>
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5107,7 +5099,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5136,7 +5128,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -5145,7 +5137,7 @@
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>1.4165359383584</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -5162,7 +5154,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="9" t="s">
         <v>33</v>
@@ -5187,7 +5179,7 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5213,7 +5205,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
         <v>33</v>
@@ -5235,7 +5227,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5246,14 +5238,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -5279,7 +5271,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>33</v>
@@ -5301,7 +5293,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -5327,7 +5319,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>33</v>
@@ -5349,7 +5341,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -5360,14 +5352,14 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -5393,7 +5385,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
         <v>33</v>
@@ -5439,4 +5431,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day sliding" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date range</t>
   </si>
@@ -156,6 +156,12 @@
     <t xml:space="preserve">13-Jan-2016 ::12-Jan-2021</t>
   </si>
   <si>
+    <t xml:space="preserve">14-Jan-2016 ::13-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Jan-2016 ::14-Jan-2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">ratio</t>
   </si>
   <si>
@@ -172,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">12-Jan-2016 :: 11-Jan-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarm Size</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5019,6 +5031,87 @@
       <c r="C64" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="D64" s="0" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>19.2301846064982</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1.44668397986149</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2.08343042822652</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>20.5073928588901</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.595021129592181</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.0589287706689964</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0.254923683465911</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>4.39493669186687</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0.00184168666493897</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0.614136763787792</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>10.1988312404609</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0.172161040256764</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>0.0728992877456759</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>10.8243037591689</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0.0239797265807919</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>0.336232349707461</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>23.5439596970092</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>5.48004411177608</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>0.469122833822012</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>18.887276176039</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>0.0110475503016355</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>0.203899136682724</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>1.08257953104939</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <v>0.154007164014406</v>
+      </c>
+      <c r="AC64" s="0" t="n">
+        <v>0.0124864701870404</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <v>0.0165579120347361</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
@@ -5026,6 +5119,87 @@
       <c r="C65" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D65" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>10.285912696499</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2.25745645380631</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>4.89635702634902</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>2.34410637920037</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>1.6087793633012</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>1.2512248777055</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>4.53868026709921</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>4.94391396512726</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>1.09807646778182</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>4.57441206632247</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>1.17221810775556</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>18.2552855927203</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1.9352226121114</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>4.46273830528689</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>6.99447618442967</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>1.5813084465745</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>3.77695156855662</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>2.36511948331168</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>7.69835350839443</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>7.06501259511535</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>1.50636732170849</v>
+      </c>
+      <c r="Z65" s="0" t="n">
+        <v>1.4774298827902</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>3.48004113344524</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <v>1.8846185202847</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <v>3.12284522375378</v>
+      </c>
+      <c r="AD65" s="0" t="n">
+        <v>7.96646110087432</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -5034,6 +5208,87 @@
       </c>
       <c r="C66" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0.282043646035405</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.174239198239089</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1.41325056889617</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.0217083937079497</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.0585544360932733</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.00789112781345329</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.0723717019877697</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0.0493429254969424</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0.0263141490061151</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0.0539486807951079</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0.0171026384097842</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0.00789112781345329</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0.0723717019877697</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>0.0723717019877697</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>0.0217083937079497</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0.0401314149006115</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0.0124968831116187</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.0493429254969424</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0.0401314149006115</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>0.0677659466896043</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>0.0723717019877697</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>0.0631601913914388</v>
+      </c>
+      <c r="Z66" s="0" t="n">
+        <v>0.00789112781345329</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>0.0355256596024461</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <v>0.0493429254969424</v>
+      </c>
+      <c r="AC66" s="0" t="n">
+        <v>0.0171026384097842</v>
+      </c>
+      <c r="AD66" s="0" t="n">
+        <v>0.0631601913914388</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,9 +5297,1162 @@
       <c r="C67" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D67" s="0" t="n">
+        <v>0.296095767739088</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.115155381102394</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>2.26038735877778</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.0748621044326009</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.0543023494291836</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.0440224719274749</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0.0286026556749119</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0.0748621044326009</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0.0183227781732033</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0.0697221656817466</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0.0594422881800379</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0.0491624106783292</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0.0800020431834552</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>0.0183227781732033</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>0.0131828394223489</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>0.0491624106783292</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0.0234627169240576</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>0.00804290067149461</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>0.0286026556749119</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>0.0594422881800379</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>0.0388825331766206</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>0.0543023494291836</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>0.0183227781732033</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>0.0286026556749119</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <v>0.0748621044326009</v>
+      </c>
+      <c r="AC67" s="0" t="n">
+        <v>0.00804290067149461</v>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <v>0.0234627169240576</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>30.1598646497366</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>17.7473654592777</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1.49767945618326</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>3.43146924445057</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>10.2841790128587</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>5.40873197783481</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0.0232050187814929</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>7.64849470358041</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>2.08408876678178</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1.49176109986093</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>4.33884707996935</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>1.04371432109683</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>6.85426209950033</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>0.306050483478165</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>7.98319428399128</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>7.27306931392459</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>0.1136166013971</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <v>9.65923196214544</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>2.42526984949599</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>4.76235742624348</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>10.2397264570841</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>0.435307443985625</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>2.70097882447569</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>1.90019855859802</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <v>3.36930453837799</v>
+      </c>
+      <c r="AC70" s="0" t="n">
+        <v>0.424686618288734</v>
+      </c>
+      <c r="AD70" s="0" t="n">
+        <v>5.79825431379865</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>30.1598646497366</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>11.2313783585977</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>2.36657192030126</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>3.43146924445057</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>10.2841790128587</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>5.40873197783481</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0.0232050187814929</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>7.64849470358041</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>2.08408876678178</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>1.49176109986093</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>4.33884707996935</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>1.04371432109683</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>6.85426209950033</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>0.306050483478165</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>7.98319428399128</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>7.27306931392459</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>0.1136166013971</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>9.65923196214544</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>2.42526984949599</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>4.76235742624348</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>10.2397264570841</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>0.435307443985625</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>2.70097882447569</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>1.90019855859802</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <v>3.36930453837799</v>
+      </c>
+      <c r="AC71" s="0" t="n">
+        <v>0.424686618288734</v>
+      </c>
+      <c r="AD71" s="0" t="n">
+        <v>5.79825431379865</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>24.5967477524977</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1.44002777750986</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>4.67649067052246E-005</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>31.531029583694</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0.603634893278499</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0.862749301472911</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>21.29986575852</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0.000537589050816057</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0.00119508152081951</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0.000684415998858675</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0.000902018104903091</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0.000278970007830228</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>0.446731096867907</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>0.0153270913016495</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>15.6269593967386</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>0.0781770077780473</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>0.421805648855826</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>0.0166800049164278</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>0.0946240798180491</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>0.439502631737825</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>4.46727775962812</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>0.0695340592256216</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>3.6866975121702</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>20.2940777044136</v>
+      </c>
+      <c r="AC72" s="0" t="n">
+        <v>0.0207991883970303</v>
+      </c>
+      <c r="AD72" s="0" t="n">
+        <v>0.0208824415957947</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>10.733126291999</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>2.36836866616853</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.158894388259718</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>3.29588444423153</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>7.07549234989233</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0.28594645075312</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0.192285428298811</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1.08106971847181</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0.521761959949121</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0.699247153761089</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0.663679924943167</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>1.75168014829224</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>0.350522334542612</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>3.3152220653223</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>7.09334510046182</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>1.04809859569672</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>14.3651374746148</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>3.25457487706729</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>6.52442750018441</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>7.5909668481366</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>1.26349113163295</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>3.26974727519546</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>3.07865044484501</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>14.8678396184751</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <v>1.35814163365434</v>
+      </c>
+      <c r="AD73" s="0" t="n">
+        <v>16.8938931333177</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+      <c r="B74" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.293708815165617</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.179455144108838</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1.43717705305342</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.0214696765677323</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.0770113993398018</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0.0568144092408674</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0.0113711815182651</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0.0719621518150682</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>0.00632193399353154</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>0.0669129042903346</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0.0770113993398018</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0.0214696765677323</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0.061863656765601</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>0.0113711815182651</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>0.0164204290429987</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0.0517651617161339</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>0.0366174191419331</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>0.0669129042903346</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>0.061863656765601</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>0.0113711815182651</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>0.0467159141914003</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>0.0366174191419331</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <v>0.0164204290429987</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <v>0.0467159141914003</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.292932147266183</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.115373840564691</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>2.22868672835769</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.0402300925970931</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.0517226851536819</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0.0344837963187986</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0.0287375000405042</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0.0517226851536819</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>0.00575231492732644</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>0.0172449074839153</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0.0632152777102708</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0.0804541665451541</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0.0344837963187986</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>0.0344837963187986</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>0.0172449074839153</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>0.0344837963187986</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0.00575231492732644</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0.0862004628234486</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0.0229912037622097</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>0.0229912037622097</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>0.0402300925970931</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>0.0632152777102708</v>
+      </c>
+      <c r="Z75" s="0" t="n">
+        <v>0.0114986112056209</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>0.0172449074839153</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <v>0.0862004628234486</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <v>0.0747078702668597</v>
+      </c>
+      <c r="AD75" s="0" t="n">
+        <v>0.0747078702668597</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>30.7799431621349</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>18.196688478018</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1.49477434836525</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>6.89171704673691</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>7.00832887864094</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>5.1566030259057</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>1.0751123630033</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>6.49505442658005</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1.47365666675803</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>2.21894222869264</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>3.8487118302064</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>2.6903848345885</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>5.90518943681028</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>1.69958478383736</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>2.87765699276089</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>4.58364875341743</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>0.479118479010207</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>4.95167582154656</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>2.63122622112551</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>6.60173676606889</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>4.01925666002475</v>
+      </c>
+      <c r="Y78" s="0" t="n">
+        <v>7.42828377562891</v>
+      </c>
+      <c r="Z78" s="0" t="n">
+        <v>3.36054478377614</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <v>1.11706479800444</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <v>9.0220043039619</v>
+      </c>
+      <c r="AC78" s="0" t="n">
+        <v>0.0284464454720952</v>
+      </c>
+      <c r="AD78" s="0" t="n">
+        <v>8.43605067744216</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>30.7799431621349</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>11.3920287462258</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>2.38762943528792</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>6.89171704673691</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>7.00832887864094</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>5.1566030259057</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>1.0751123630033</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>6.49505442658005</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>1.47365666675803</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>2.21894222869264</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>3.8487118302064</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>2.6903848345885</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>5.90518943681028</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <v>1.69958478383736</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>2.87765699276089</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>4.58364875341743</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>0.479118479010207</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>4.95167582154656</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>2.63122622112551</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>6.60173676606889</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>4.01925666002475</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>7.42828377562891</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <v>3.36054478377614</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <v>1.11706479800444</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <v>9.0220043039619</v>
+      </c>
+      <c r="AC79" s="0" t="n">
+        <v>0.0284464454720952</v>
+      </c>
+      <c r="AD79" s="0" t="n">
+        <v>8.43605067744216</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>16.9941166289984</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1.46050545267223</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>6.3743881101605</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>2.55312223560433</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>1.54961038151092</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>2.85084225183319</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>2.44971456684448</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>0.817232824906818</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>2.7218845921648</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>1.50043359152088</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>0.0894615904887263</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>7.25601290634838</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>1.80695925010852</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>2.65967387303893</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>10.3054481812629</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>1.96338906485962</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>10.380775667155</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>6.16253552405906</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>11.2967573590487</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <v>9.46294048121198</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>0.4691719462886</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <v>0.373905135312976</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <v>0.48799333960658</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <v>9.9958933075578</v>
+      </c>
+      <c r="AC80" s="0" t="n">
+        <v>5.20023443507593</v>
+      </c>
+      <c r="AD80" s="0" t="n">
+        <v>1.27161938403046</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>11.180339887499</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>2.30941100716178</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0.329429653411028</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>1.33116042252423</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.385534955055976</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>3.67369491739523</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>3.13745109997566</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>1.95484209413148</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>16.8880737794126</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>1.19693548571357</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>2.65762393541152</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>6.36847116726368</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>1.20383075875907</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>0.13531748255698</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>3.77417984781118</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>3.7745416583416</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>15.0433508773216</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>2.25398686598059</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>5.42845978627549</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <v>1.86841458976966</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>22.5245638603576</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <v>1.26681884342976</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <v>0.335407466243492</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <v>0.648502298000564</v>
+      </c>
+      <c r="AC81" s="0" t="n">
+        <v>0.71203298547103</v>
+      </c>
+      <c r="AD81" s="0" t="n">
+        <v>3.10737516938642</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3"/>
+      <c r="B82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.278423513765647</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.170735900310111</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1.42104568122442</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.0475218727509206</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.00737188817317924</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0.0525406208231383</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0.0174093843176146</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0.0475218727509206</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>0.0123906362453969</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0.057559368895356</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0.0776343611842267</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0.0525406208231383</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0.072615613112009</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>0.0174093843176146</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>0.0675968650397913</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>0.0123906362453969</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0.0174093843176146</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0.0425031246787029</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>0.0525406208231383</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>0.0224281323898323</v>
+      </c>
+      <c r="X82" s="0" t="n">
+        <v>0.0776343611842267</v>
+      </c>
+      <c r="Y82" s="0" t="n">
+        <v>0.072615613112009</v>
+      </c>
+      <c r="Z82" s="0" t="n">
+        <v>0.0425031246787029</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>0.0174093843176146</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <v>0.0475218727509206</v>
+      </c>
+      <c r="AC82" s="0" t="n">
+        <v>0.00737188817317924</v>
+      </c>
+      <c r="AD82" s="0" t="n">
+        <v>0.057559368895356</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0.306288711935949</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.117355782643463</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>2.30486053471875</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.0466726171844761</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0.056684518220095</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0.0666964192557139</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>0.0216428645954288</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0.056684518220095</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>0.0216428645954288</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>0.0316547656310478</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0.0666964192557139</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0.0466726171844761</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>0.0316547656310478</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>0.0216428645954288</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>0.0116309635598099</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>0.0266488151132383</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>0.0216428645954288</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>0.056684518220095</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>0.0116309635598099</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>0.0817142708091423</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <v>0.0767083202913329</v>
+      </c>
+      <c r="Y83" s="0" t="n">
+        <v>0.056684518220095</v>
+      </c>
+      <c r="Z83" s="0" t="n">
+        <v>0.056684518220095</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>0.0116309635598099</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <v>0.0767083202913329</v>
+      </c>
+      <c r="AC83" s="0" t="n">
+        <v>0.0116309635598099</v>
+      </c>
+      <c r="AD83" s="0" t="n">
+        <v>0.0316547656310478</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="44">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -5081,6 +6489,14 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -5100,7 +6516,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5109,22 +6525,24 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5360,7 +6778,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>35</v>
@@ -5438,14 +6856,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.55068714160567</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>78.835</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>493.8664</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>Date range</t>
   </si>
@@ -190,6 +190,12 @@
   <si>
     <t>19-Jan-2016 ::18-Jan-2021</t>
   </si>
+  <si>
+    <t>20-Jan-2016 ::19-Jan-2021</t>
+  </si>
+  <si>
+    <t>21-Jan-2016 ::20-Jan-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -280,21 +286,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -322,10 +313,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,120 +694,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ98"/>
+  <dimension ref="A1:AMJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:AD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
-    <col min="4" max="1024" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D2">
@@ -887,9 +893,9 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="25.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D3">
@@ -975,358 +981,358 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>33.4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>20.124611797498101</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>1.4817677130898601</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>7.9527390977652795E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>22.4464268497482</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="1">
         <v>0.25733436844476199</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
         <v>0.83970564615458798</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="1">
         <v>13.769638687008801</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="1">
         <v>0.77676813194347905</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="1">
         <v>13.266950941268</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="1">
         <v>3.12185935387879</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="1">
         <v>3.9137542296357103E-2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="1">
         <v>8.0993263709179999</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="1">
         <v>7.7609373197022801E-3</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="1">
         <v>0.115734468143942</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="1">
         <v>0.700010545353425</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="1">
         <v>0.47170903446363799</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="1">
         <v>9.1639014261746699</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="1">
         <v>0.64429754029554298</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="1">
         <v>5.2811712317144301E-2</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="1">
         <v>0.38361573795180398</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="1">
         <v>3.6131235674055402</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="1">
         <v>5.8078805284563702</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="1">
         <v>1.47507561034199</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>13.2410058761967</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="1">
         <v>0.22518442267864999</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="1">
         <v>1.4012133102623301</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="25.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>28.2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>10.733126291999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>2.2938330669185301</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>1.6543985476799901</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>3.2713886671087199E-6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="1">
         <v>8.7072622339152606</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
         <v>6.9307411612482203E-3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="1">
         <v>0.31145953095198697</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="1">
         <v>3.6065607324878901E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="1">
         <v>13.8390635904781</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="1">
         <v>2.9005036469138301</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>4.2643679960571397E-2</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="1">
         <v>0.195213362114255</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="1">
         <v>0.27091926316542903</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="1">
         <v>5.5659362995075495E-4</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="1">
         <v>8.9691427777364204E-4</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="1">
         <v>2.55930242767771E-2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="1">
         <v>42.2484109538347</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="1">
         <v>5.5568725371925698</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="1">
         <v>4.7830986438024201</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="1">
         <v>1.9062865557336</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="1">
         <v>17.2813893591191</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="1">
         <v>1.32904759460731E-4</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="1">
         <v>5.0356109210957102E-2</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="1">
         <v>0.12957429879380999</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="1">
         <v>1.8982271340490402E-2</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="1">
         <v>3.33863589740876E-2</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>0.27900471696332502</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>0.181111190804886</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>1.3428475395832</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <v>2.79233758435109E-2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>5.8845780195611402E-2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <v>4.8538312078244598E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <v>7.9460716430344996E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>5.8845780195611402E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>1.24621736674607E-2</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="8">
         <v>1.24621736674607E-2</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="8">
         <v>7.9460716430344996E-2</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <v>5.3692046136927997E-2</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="8">
         <v>6.3999514254294801E-2</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="8">
         <v>7.3084396087772603E-3</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="8">
         <v>6.3999514254294801E-2</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="8">
         <v>4.3384578019561103E-2</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="8">
         <v>3.3077109902194299E-2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="8">
         <v>6.9153248312978199E-2</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="8">
         <v>1.24621736674607E-2</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="8">
         <v>5.8845780195611402E-2</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="8">
         <v>5.3692046136927997E-2</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="8">
         <v>6.9153248312978199E-2</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="8">
         <v>1.24621736674607E-2</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="8">
         <v>3.8230843960877697E-2</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="8">
         <v>7.3084396087772603E-3</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="8">
         <v>2.2769641784827498E-2</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="8">
         <v>1.24621736674607E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="25.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>0.28067536281093403</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>0.115338965607968</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>2.1230931066544598</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>5.5559440002794398E-2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>7.0056246962232102E-2</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="8">
         <v>7.2367501380021697E-3</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <v>3.6230364056877497E-2</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>7.4888515948711404E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>1.6901288110960599E-2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>7.2367501380021697E-3</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>7.0056246962232102E-2</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>3.6230364056877497E-2</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="8">
         <v>5.5559440002794398E-2</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="8">
         <v>3.1398095070398299E-2</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="8">
         <v>7.0056246962232102E-2</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="8">
         <v>3.1398095070398299E-2</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="8">
         <v>1.6901288110960599E-2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="8">
         <v>6.03917089892737E-2</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="8">
         <v>1.6901288110960599E-2</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="8">
         <v>1.6901288110960599E-2</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="8">
         <v>3.1398095070398299E-2</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="8">
         <v>6.03917089892737E-2</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="8">
         <v>4.5894902029836003E-2</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="8">
         <v>5.5559440002794398E-2</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="8">
         <v>7.4888515948711404E-2</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="8">
         <v>4.5894902029836003E-2</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="8">
         <v>1.2069019124481399E-2</v>
       </c>
     </row>
@@ -1336,13 +1342,13 @@
       <c r="C8"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D9">
@@ -1428,9 +1434,9 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="25.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D10">
@@ -1516,11 +1522,11 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D11">
@@ -1606,9 +1612,9 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="25.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D12">
@@ -1694,11 +1700,11 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D13">
@@ -1784,9 +1790,9 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="25.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D14">
@@ -1872,13 +1878,13 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D16">
@@ -1964,9 +1970,9 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="25.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D17">
@@ -2052,11 +2058,11 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18">
@@ -2142,9 +2148,9 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="25.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19">
@@ -2230,11 +2236,11 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20">
@@ -2320,9 +2326,9 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="25.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D21">
@@ -2409,13 +2415,13 @@
     </row>
     <row r="22" spans="1:30" ht="40.5" customHeight="1"/>
     <row r="23" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D23">
@@ -2501,9 +2507,9 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="25.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D24">
@@ -2589,11 +2595,11 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D25">
@@ -2679,9 +2685,9 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="25.5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D26">
@@ -2767,11 +2773,11 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D27">
@@ -2857,9 +2863,9 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="25.5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D28">
@@ -2945,13 +2951,13 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D31">
@@ -3037,9 +3043,9 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="25.5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D32">
@@ -3125,11 +3131,11 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D33">
@@ -3215,9 +3221,9 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="25.5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D34">
@@ -3303,11 +3309,11 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D35">
@@ -3393,9 +3399,9 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="25.5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="12" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D36">
@@ -3481,13 +3487,13 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D38">
@@ -3573,9 +3579,9 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="25.5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="12" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D39">
@@ -3661,11 +3667,11 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D40">
@@ -3751,9 +3757,9 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="25.5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="12" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D41">
@@ -3839,11 +3845,11 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D42">
@@ -3929,9 +3935,9 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="25.5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D43">
@@ -4017,13 +4023,13 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D46">
@@ -4109,9 +4115,9 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="25.5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="12" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D47">
@@ -4197,11 +4203,11 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D48">
@@ -4287,9 +4293,9 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="25.5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D49">
@@ -4375,11 +4381,11 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D50">
@@ -4465,9 +4471,9 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="25.5">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="12" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D51">
@@ -4553,13 +4559,13 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D54">
@@ -4645,9 +4651,9 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="25.5">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="12" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D55">
@@ -4733,11 +4739,11 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D56">
@@ -4823,9 +4829,9 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="25.5">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="12" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D57">
@@ -4911,11 +4917,11 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D58">
@@ -5001,9 +5007,9 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="25.5">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D59">
@@ -5089,13 +5095,13 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D62">
@@ -5181,9 +5187,9 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="25.5">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="12" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D63">
@@ -5269,11 +5275,11 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D64">
@@ -5359,9 +5365,9 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="25.5">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D65">
@@ -5447,11 +5453,11 @@
       </c>
     </row>
     <row r="66" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A66" s="5"/>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D66">
@@ -5537,9 +5543,9 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="25.5">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D67">
@@ -5625,13 +5631,13 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D70">
@@ -5717,9 +5723,9 @@
       </c>
     </row>
     <row r="71" spans="1:30" ht="25.5">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="12" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D71">
@@ -5805,11 +5811,11 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A72" s="5"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D72">
@@ -5895,9 +5901,9 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="25.5">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="12" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D73">
@@ -5983,11 +5989,11 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="12"/>
+      <c r="B74" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D74">
@@ -6073,9 +6079,9 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="25.5">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="12" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D75">
@@ -6161,13 +6167,13 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D78">
@@ -6253,9 +6259,9 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="25.5">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="12" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D79">
@@ -6341,11 +6347,11 @@
       </c>
     </row>
     <row r="80" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A80" s="5"/>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D80">
@@ -6431,9 +6437,9 @@
       </c>
     </row>
     <row r="81" spans="1:30" ht="25.5">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="12" t="s">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D81">
@@ -6519,11 +6525,11 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A82" s="5"/>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D82">
@@ -6609,9 +6615,9 @@
       </c>
     </row>
     <row r="83" spans="1:30" ht="25.5">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="12" t="s">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D83">
@@ -6697,13 +6703,13 @@
       </c>
     </row>
     <row r="85" spans="1:30" ht="25.5">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D85">
@@ -6789,9 +6795,9 @@
       </c>
     </row>
     <row r="86" spans="1:30" ht="25.5">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="12" t="s">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D86">
@@ -6877,11 +6883,11 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="25.5">
-      <c r="A87" s="5"/>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D87">
@@ -6911,10 +6917,10 @@
       <c r="L87">
         <v>1.7261854900860199E-4</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M87" s="10">
         <v>1.0124585088725201E-5</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N87" s="10">
         <v>5.6864110624996702E-7</v>
       </c>
       <c r="O87">
@@ -6938,7 +6944,7 @@
       <c r="U87">
         <v>1.3408169013852099E-4</v>
       </c>
-      <c r="V87" s="16">
+      <c r="V87" s="10">
         <v>1.9902616833019301E-5</v>
       </c>
       <c r="W87">
@@ -6967,9 +6973,9 @@
       </c>
     </row>
     <row r="88" spans="1:30" ht="25.5">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="12" t="s">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D88">
@@ -7055,11 +7061,11 @@
       </c>
     </row>
     <row r="89" spans="1:30" ht="25.5">
-      <c r="A89" s="5"/>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="12"/>
+      <c r="B89" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D89">
@@ -7145,9 +7151,9 @@
       </c>
     </row>
     <row r="90" spans="1:30" ht="25.5">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="12" t="s">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D90">
@@ -7233,13 +7239,13 @@
       </c>
     </row>
     <row r="93" spans="1:30" ht="25.5">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D93">
@@ -7325,9 +7331,9 @@
       </c>
     </row>
     <row r="94" spans="1:30" ht="25.5">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="12" t="s">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D94">
@@ -7413,39 +7419,1159 @@
       </c>
     </row>
     <row r="95" spans="1:30" ht="25.5">
-      <c r="A95" s="5"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="12"/>
+      <c r="B95" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D95">
+        <v>34.599999999999902</v>
+      </c>
+      <c r="E95">
+        <v>21.019038988498</v>
+      </c>
+      <c r="F95">
+        <v>1.4758048651498601</v>
+      </c>
+      <c r="G95">
+        <v>1.8624372415703E-2</v>
+      </c>
+      <c r="H95">
+        <v>26.574732397063499</v>
+      </c>
+      <c r="I95">
+        <v>1.0642866864477501E-2</v>
+      </c>
+      <c r="J95">
+        <v>9.8425728580171304E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.64714693380153399</v>
+      </c>
+      <c r="L95">
+        <v>0.58735922253448203</v>
+      </c>
+      <c r="M95">
+        <v>4.8693836462651499</v>
+      </c>
+      <c r="N95">
+        <v>0.23103385401215601</v>
+      </c>
+      <c r="O95">
+        <v>0.54182349244976602</v>
+      </c>
+      <c r="P95">
+        <v>0.90980176391255096</v>
+      </c>
+      <c r="Q95">
+        <v>1.1420976764721601E-4</v>
+      </c>
+      <c r="R95">
+        <v>1.4271373894878401</v>
+      </c>
+      <c r="S95">
+        <v>1.2328382311372999E-2</v>
+      </c>
+      <c r="T95">
+        <v>0.15688771338631899</v>
+      </c>
+      <c r="U95">
+        <v>0.21137891415416901</v>
+      </c>
+      <c r="V95">
+        <v>0.72168996051406997</v>
+      </c>
+      <c r="W95">
+        <v>0.16773871226089099</v>
+      </c>
+      <c r="X95">
+        <v>37.816313046777402</v>
+      </c>
+      <c r="Y95">
+        <v>11.572186309022101</v>
+      </c>
+      <c r="Z95">
+        <v>5.61349685912267E-2</v>
+      </c>
+      <c r="AA95">
+        <v>1.6456501209032499</v>
+      </c>
+      <c r="AB95">
+        <v>8.7456218929471508</v>
+      </c>
+      <c r="AC95">
+        <v>2.0818187873892402</v>
+      </c>
+      <c r="AD95">
+        <v>0.89602531458769996</v>
+      </c>
     </row>
     <row r="96" spans="1:30" ht="25.5">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="12" t="s">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="25.5">
-      <c r="A97" s="5"/>
-      <c r="B97" s="2" t="s">
+      <c r="D96">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>11.180339887498899</v>
+      </c>
+      <c r="F96">
+        <v>2.3630766386217701</v>
+      </c>
+      <c r="G96">
+        <v>2.8078254364438502</v>
+      </c>
+      <c r="H96">
+        <v>1.3396619026711001</v>
+      </c>
+      <c r="I96">
+        <v>1.5317928657397899</v>
+      </c>
+      <c r="J96">
+        <v>1.6157573593254999</v>
+      </c>
+      <c r="K96">
+        <v>0.24887280090245001</v>
+      </c>
+      <c r="L96">
+        <v>0.66830887124129501</v>
+      </c>
+      <c r="M96">
+        <v>0.201325510862056</v>
+      </c>
+      <c r="N96">
+        <v>9.2153219079964301E-3</v>
+      </c>
+      <c r="O96">
+        <v>1.0149177049361799</v>
+      </c>
+      <c r="P96">
+        <v>27.396052478592399</v>
+      </c>
+      <c r="Q96">
+        <v>3.9963248402001203E-2</v>
+      </c>
+      <c r="R96">
+        <v>2.0109376159993602</v>
+      </c>
+      <c r="S96">
+        <v>18.176986713838598</v>
+      </c>
+      <c r="T96">
+        <v>0.57420352123853502</v>
+      </c>
+      <c r="U96">
+        <v>11.971758719101199</v>
+      </c>
+      <c r="V96">
+        <v>2.2231799092512201</v>
+      </c>
+      <c r="W96">
+        <v>11.3405657971492</v>
+      </c>
+      <c r="X96">
+        <v>2.6688506099090601E-2</v>
+      </c>
+      <c r="Y96">
+        <v>3.9292767654573599</v>
+      </c>
+      <c r="Z96">
+        <v>0.33411773839685099</v>
+      </c>
+      <c r="AA96">
+        <v>5.0652019084127801E-2</v>
+      </c>
+      <c r="AB96">
+        <v>10.127430010599999</v>
+      </c>
+      <c r="AC96">
+        <v>2.2863394897031002</v>
+      </c>
+      <c r="AD96">
+        <v>7.41696930564716E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="25.5">
+      <c r="A97" s="12"/>
+      <c r="B97" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="25.5">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="12" t="s">
+      <c r="D97">
+        <v>28.308575968363101</v>
+      </c>
+      <c r="E97">
+        <v>17.475301331630199</v>
+      </c>
+      <c r="F97">
+        <v>141.50586304114</v>
+      </c>
+      <c r="G97">
+        <v>7.8999413391789997</v>
+      </c>
+      <c r="H97">
+        <v>7.3468636099179099</v>
+      </c>
+      <c r="I97">
+        <v>1.2630085880459601</v>
+      </c>
+      <c r="J97">
+        <v>6.7937858806568201</v>
+      </c>
+      <c r="K97">
+        <v>2.9222417758292201</v>
+      </c>
+      <c r="L97">
+        <v>5.6876304221346503</v>
+      </c>
+      <c r="M97">
+        <v>4.5814749636124796</v>
+      </c>
+      <c r="N97">
+        <v>2.3691640465681298</v>
+      </c>
+      <c r="O97">
+        <v>0.70993085878487405</v>
+      </c>
+      <c r="P97">
+        <v>5.6876304221346503</v>
+      </c>
+      <c r="Q97">
+        <v>2.3691640465681298</v>
+      </c>
+      <c r="R97">
+        <v>2.3691640465681298</v>
+      </c>
+      <c r="S97">
+        <v>2.3691640465681298</v>
+      </c>
+      <c r="T97">
+        <v>0.70993085878487405</v>
+      </c>
+      <c r="U97">
+        <v>1.8160863173070401</v>
+      </c>
+      <c r="V97">
+        <v>6.2407081513957401</v>
+      </c>
+      <c r="W97">
+        <v>7.3468636099179099</v>
+      </c>
+      <c r="X97">
+        <v>8.4530190684400903</v>
+      </c>
+      <c r="Y97">
+        <v>8.4530190684400903</v>
+      </c>
+      <c r="Z97">
+        <v>1.2630085880459601</v>
+      </c>
+      <c r="AA97">
+        <v>2.3691640465681298</v>
+      </c>
+      <c r="AB97">
+        <v>5.1345526928735596</v>
+      </c>
+      <c r="AC97">
+        <v>1.2630085880459601</v>
+      </c>
+      <c r="AD97">
+        <v>4.5814749636124796</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="25.5">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D98">
+        <v>28.192257268321502</v>
+      </c>
+      <c r="E98">
+        <v>11.054884989267601</v>
+      </c>
+      <c r="F98">
+        <v>222.63693645131201</v>
+      </c>
+      <c r="G98">
+        <v>6.7990506280679197</v>
+      </c>
+      <c r="H98">
+        <v>7.3484177156647101</v>
+      </c>
+      <c r="I98">
+        <v>0.75601266450329097</v>
+      </c>
+      <c r="J98">
+        <v>4.0522151900840004</v>
+      </c>
+      <c r="K98">
+        <v>5.1509493652775697</v>
+      </c>
+      <c r="L98">
+        <v>2.4041139272936398</v>
+      </c>
+      <c r="M98">
+        <v>6.7990506280679197</v>
+      </c>
+      <c r="N98">
+        <v>7.8977848032614997</v>
+      </c>
+      <c r="O98">
+        <v>1.8547468396968601</v>
+      </c>
+      <c r="P98">
+        <v>8.4471518908582794</v>
+      </c>
+      <c r="Q98">
+        <v>3.50284810248721</v>
+      </c>
+      <c r="R98">
+        <v>5.1509493652775697</v>
+      </c>
+      <c r="S98">
+        <v>2.4041139272936398</v>
+      </c>
+      <c r="T98">
+        <v>5.1509493652775697</v>
+      </c>
+      <c r="U98">
+        <v>4.0522151900840004</v>
+      </c>
+      <c r="V98">
+        <v>2.9534810148904298</v>
+      </c>
+      <c r="W98">
+        <v>3.50284810248721</v>
+      </c>
+      <c r="X98">
+        <v>3.50284810248721</v>
+      </c>
+      <c r="Y98">
+        <v>8.4471518908582794</v>
+      </c>
+      <c r="Z98">
+        <v>1.3053797521000701</v>
+      </c>
+      <c r="AA98">
+        <v>0.75601266450329097</v>
+      </c>
+      <c r="AB98">
+        <v>2.4041139272936398</v>
+      </c>
+      <c r="AC98">
+        <v>1.8547468396968601</v>
+      </c>
+      <c r="AD98">
+        <v>3.50284810248721</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="25.5">
+      <c r="A101" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101">
+        <v>29.428662673760801</v>
+      </c>
+      <c r="E101">
+        <v>17.139315168134701</v>
+      </c>
+      <c r="F101">
+        <v>1.50815026272569</v>
+      </c>
+      <c r="G101">
+        <v>7.22152890090097</v>
+      </c>
+      <c r="H101">
+        <v>7.6012345065165103</v>
+      </c>
+      <c r="I101">
+        <v>2.1592382382965498</v>
+      </c>
+      <c r="J101">
+        <v>4.0750520454607102</v>
+      </c>
+      <c r="K101">
+        <v>5.4049511325980797</v>
+      </c>
+      <c r="L101">
+        <v>1.1394118971587099</v>
+      </c>
+      <c r="M101">
+        <v>4.3496615466374999</v>
+      </c>
+      <c r="N101">
+        <v>3.23792232052228</v>
+      </c>
+      <c r="O101">
+        <v>0.53666809160256801</v>
+      </c>
+      <c r="P101">
+        <v>6.92956919071126</v>
+      </c>
+      <c r="Q101">
+        <v>2.19619952250327</v>
+      </c>
+      <c r="R101">
+        <v>7.8705074605868797</v>
+      </c>
+      <c r="S101">
+        <v>0.95859947953693003</v>
+      </c>
+      <c r="T101">
+        <v>0.68666019157685898</v>
+      </c>
+      <c r="U101">
+        <v>7.9521660032603698</v>
+      </c>
+      <c r="V101">
+        <v>5.8624506488922004</v>
+      </c>
+      <c r="W101">
+        <v>5.8730082157919297</v>
+      </c>
+      <c r="X101">
+        <v>4.7943282891268098</v>
+      </c>
+      <c r="Y101">
+        <v>5.6143134777887296</v>
+      </c>
+      <c r="Z101">
+        <v>1.90924489856045</v>
+      </c>
+      <c r="AA101">
+        <v>3.78780630190372</v>
+      </c>
+      <c r="AB101">
+        <v>7.7614400129287002</v>
+      </c>
+      <c r="AC101">
+        <v>1.46013574949253</v>
+      </c>
+      <c r="AD101">
+        <v>0.61790187764541005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="25.5">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102">
+        <v>30.091683223095</v>
+      </c>
+      <c r="E102">
+        <v>11.084275392442899</v>
+      </c>
+      <c r="F102">
+        <v>2.3918282688257899</v>
+      </c>
+      <c r="G102">
+        <v>9.3717019732631197</v>
+      </c>
+      <c r="H102">
+        <v>5.77341978621227</v>
+      </c>
+      <c r="I102">
+        <v>5.69028728293498</v>
+      </c>
+      <c r="J102">
+        <v>3.1145384520478401</v>
+      </c>
+      <c r="K102">
+        <v>5.7750464726253101</v>
+      </c>
+      <c r="L102">
+        <v>1.34523148502693</v>
+      </c>
+      <c r="M102">
+        <v>5.5537316138547101</v>
+      </c>
+      <c r="N102">
+        <v>7.4097685390113499</v>
+      </c>
+      <c r="O102">
+        <v>3.2502011686371501</v>
+      </c>
+      <c r="P102">
+        <v>5.2433257979331804</v>
+      </c>
+      <c r="Q102">
+        <v>9.75628461880063E-2</v>
+      </c>
+      <c r="R102">
+        <v>4.2601307128980501</v>
+      </c>
+      <c r="S102">
+        <v>0.18975102383193801</v>
+      </c>
+      <c r="T102">
+        <v>0.40023975371135501</v>
+      </c>
+      <c r="U102">
+        <v>7.9072761460186403</v>
+      </c>
+      <c r="V102">
+        <v>0.729449746736342</v>
+      </c>
+      <c r="W102">
+        <v>6.7797855825676496</v>
+      </c>
+      <c r="X102">
+        <v>7.40446589423268</v>
+      </c>
+      <c r="Y102">
+        <v>8.3209905477313999</v>
+      </c>
+      <c r="Z102">
+        <v>5.4671682987415098</v>
+      </c>
+      <c r="AA102">
+        <v>1.4699680711798999</v>
+      </c>
+      <c r="AB102">
+        <v>0.69597271490619494</v>
+      </c>
+      <c r="AC102">
+        <v>1.0462691201160199</v>
+      </c>
+      <c r="AD102">
+        <v>2.7037169695933998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="25.5">
+      <c r="A103" s="12"/>
+      <c r="B103" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>17.888543819998301</v>
+      </c>
+      <c r="F103">
+        <v>1.4769228991386101</v>
+      </c>
+      <c r="G103">
+        <v>9.8129653083290602</v>
+      </c>
+      <c r="H103">
+        <v>4.3032320157286801</v>
+      </c>
+      <c r="I103">
+        <v>2.8556753840442801</v>
+      </c>
+      <c r="J103">
+        <v>2.2069648374459199</v>
+      </c>
+      <c r="K103">
+        <v>2.7369517151480398</v>
+      </c>
+      <c r="L103">
+        <v>2.1092639734694001</v>
+      </c>
+      <c r="M103">
+        <v>1.1595736856212</v>
+      </c>
+      <c r="N103">
+        <v>2.0312047023012698</v>
+      </c>
+      <c r="O103">
+        <v>4.6983087216154198</v>
+      </c>
+      <c r="P103">
+        <v>10.4661454604472</v>
+      </c>
+      <c r="Q103">
+        <v>2.1473346920106802</v>
+      </c>
+      <c r="R103">
+        <v>2.6766864466929001</v>
+      </c>
+      <c r="S103">
+        <v>1.44471488236921</v>
+      </c>
+      <c r="T103">
+        <v>1.9418158290821801</v>
+      </c>
+      <c r="U103">
+        <v>4.72610991806605</v>
+      </c>
+      <c r="V103">
+        <v>2.0208852585425698</v>
+      </c>
+      <c r="W103">
+        <v>13.9744639851711</v>
+      </c>
+      <c r="X103">
+        <v>5.7282848679727696</v>
+      </c>
+      <c r="Y103">
+        <v>2.3421187289433201</v>
+      </c>
+      <c r="Z103">
+        <v>2.9084194525234599</v>
+      </c>
+      <c r="AA103">
+        <v>3.2197709823663598</v>
+      </c>
+      <c r="AB103">
+        <v>10.908070516518301</v>
+      </c>
+      <c r="AC103">
+        <v>2.1109703716724502</v>
+      </c>
+      <c r="AD103">
+        <v>1.4700682639178699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" ht="25.5">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E104">
+        <v>12.0747670784988</v>
+      </c>
+      <c r="F104">
+        <v>2.41992245564977</v>
+      </c>
+      <c r="G104">
+        <v>0.88906093532768304</v>
+      </c>
+      <c r="H104">
+        <v>20.33250909489</v>
+      </c>
+      <c r="I104">
+        <v>2.09420745774937E-2</v>
+      </c>
+      <c r="J104">
+        <v>1.73602756043779E-2</v>
+      </c>
+      <c r="K104">
+        <v>9.0765422604366902E-2</v>
+      </c>
+      <c r="L104">
+        <v>10.6855477471131</v>
+      </c>
+      <c r="M104">
+        <v>0.10823641371888899</v>
+      </c>
+      <c r="N104">
+        <v>3.7801988126144499</v>
+      </c>
+      <c r="O104">
+        <v>2.7522098111036701</v>
+      </c>
+      <c r="P104">
+        <v>2.0757654407030202E-2</v>
+      </c>
+      <c r="Q104">
+        <v>7.7436204030911296E-2</v>
+      </c>
+      <c r="R104" s="10">
+        <v>4.0778069467589798E-7</v>
+      </c>
+      <c r="S104">
+        <v>4.5623549141792397E-2</v>
+      </c>
+      <c r="T104">
+        <v>0.24245470156520799</v>
+      </c>
+      <c r="U104">
+        <v>25.380418828936399</v>
+      </c>
+      <c r="V104">
+        <v>1.21355385501884E-2</v>
+      </c>
+      <c r="W104">
+        <v>0.11536879938611</v>
+      </c>
+      <c r="X104">
+        <v>20.1226995559012</v>
+      </c>
+      <c r="Y104">
+        <v>2.7475090278152399</v>
+      </c>
+      <c r="Z104">
+        <v>0.40512382780073702</v>
+      </c>
+      <c r="AA104">
+        <v>1.2903940167469501E-4</v>
+      </c>
+      <c r="AB104">
+        <v>10.682639425451001</v>
+      </c>
+      <c r="AC104">
+        <v>0.176177505553097</v>
+      </c>
+      <c r="AD104">
+        <v>1.29469534672436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="25.5">
+      <c r="A105" s="12"/>
+      <c r="B105" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105">
+        <v>28.7326231272157</v>
+      </c>
+      <c r="E105">
+        <v>17.723062492518601</v>
+      </c>
+      <c r="F105">
+        <v>141.920298130378</v>
+      </c>
+      <c r="G105">
+        <v>7.0271525469390603</v>
+      </c>
+      <c r="H105">
+        <v>5.7558254890402196</v>
+      </c>
+      <c r="I105">
+        <v>6.1796011750064999</v>
+      </c>
+      <c r="J105">
+        <v>3.63694705920881</v>
+      </c>
+      <c r="K105">
+        <v>4.9082741171076503</v>
+      </c>
+      <c r="L105">
+        <v>3.2131713732425302</v>
+      </c>
+      <c r="M105">
+        <v>1.0942929434111199</v>
+      </c>
+      <c r="N105">
+        <v>4.0607227451750898</v>
+      </c>
+      <c r="O105">
+        <v>3.63694705920881</v>
+      </c>
+      <c r="P105">
+        <v>3.63694705920881</v>
+      </c>
+      <c r="Q105">
+        <v>4.48449843114137</v>
+      </c>
+      <c r="R105">
+        <v>7.0271525469390603</v>
+      </c>
+      <c r="S105">
+        <v>3.63694705920881</v>
+      </c>
+      <c r="T105">
+        <v>2.3656200013099702</v>
+      </c>
+      <c r="U105">
+        <v>7.0271525469390603</v>
+      </c>
+      <c r="V105">
+        <v>5.7558254890402196</v>
+      </c>
+      <c r="W105">
+        <v>1.94184431534369</v>
+      </c>
+      <c r="X105">
+        <v>5.3320498030739296</v>
+      </c>
+      <c r="Y105">
+        <v>3.63694705920881</v>
+      </c>
+      <c r="Z105">
+        <v>1.0942929434111199</v>
+      </c>
+      <c r="AA105">
+        <v>2.3656200013099702</v>
+      </c>
+      <c r="AB105">
+        <v>5.3320498030739296</v>
+      </c>
+      <c r="AC105">
+        <v>1.5180686293773999</v>
+      </c>
+      <c r="AD105">
+        <v>5.3320498030739296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" ht="25.5">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106">
+        <v>29.587014422325201</v>
+      </c>
+      <c r="E106">
+        <v>11.4611296056797</v>
+      </c>
+      <c r="F106">
+        <v>226.91493174841099</v>
+      </c>
+      <c r="G106">
+        <v>6.50651259160996</v>
+      </c>
+      <c r="H106">
+        <v>6.50651259160996</v>
+      </c>
+      <c r="I106">
+        <v>5.5859174735994799</v>
+      </c>
+      <c r="J106">
+        <v>4.6653223555889998</v>
+      </c>
+      <c r="K106">
+        <v>5.1256199145942398</v>
+      </c>
+      <c r="L106">
+        <v>1.44323944255234</v>
+      </c>
+      <c r="M106">
+        <v>6.50651259160996</v>
+      </c>
+      <c r="N106">
+        <v>1.44323944255234</v>
+      </c>
+      <c r="O106">
+        <v>3.7447272375785299</v>
+      </c>
+      <c r="P106">
+        <v>6.50651259160996</v>
+      </c>
+      <c r="Q106">
+        <v>1.9035370015575701</v>
+      </c>
+      <c r="R106">
+        <v>4.6653223555889998</v>
+      </c>
+      <c r="S106">
+        <v>2.8241321195680502</v>
+      </c>
+      <c r="T106">
+        <v>1.44323944255234</v>
+      </c>
+      <c r="U106">
+        <v>3.7447272375785299</v>
+      </c>
+      <c r="V106">
+        <v>1.9035370015575701</v>
+      </c>
+      <c r="W106">
+        <v>2.8241321195680502</v>
+      </c>
+      <c r="X106">
+        <v>2.3638345605628102</v>
+      </c>
+      <c r="Y106">
+        <v>5.5859174735994799</v>
+      </c>
+      <c r="Z106">
+        <v>2.8241321195680502</v>
+      </c>
+      <c r="AA106">
+        <v>6.50651259160996</v>
+      </c>
+      <c r="AB106">
+        <v>7.8874052686256704</v>
+      </c>
+      <c r="AC106">
+        <v>1.44323944255234</v>
+      </c>
+      <c r="AD106">
+        <v>6.0462150326047199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="25.5">
+      <c r="A109" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>29.428662673760801</v>
+      </c>
+      <c r="E109">
+        <v>17.139315168134701</v>
+      </c>
+      <c r="F109">
+        <v>1.50815026272569</v>
+      </c>
+      <c r="G109">
+        <v>7.22152890090097</v>
+      </c>
+      <c r="H109">
+        <v>7.6012345065165103</v>
+      </c>
+      <c r="I109">
+        <v>2.1592382382965498</v>
+      </c>
+      <c r="J109">
+        <v>4.0750520454607102</v>
+      </c>
+      <c r="K109">
+        <v>5.4049511325980797</v>
+      </c>
+      <c r="L109">
+        <v>1.1394118971587099</v>
+      </c>
+      <c r="M109">
+        <v>4.3496615466374999</v>
+      </c>
+      <c r="N109">
+        <v>3.23792232052228</v>
+      </c>
+      <c r="O109">
+        <v>0.53666809160256801</v>
+      </c>
+      <c r="P109">
+        <v>6.92956919071126</v>
+      </c>
+      <c r="Q109">
+        <v>2.19619952250327</v>
+      </c>
+      <c r="R109">
+        <v>7.8705074605868797</v>
+      </c>
+      <c r="S109">
+        <v>0.95859947953693003</v>
+      </c>
+      <c r="T109">
+        <v>0.68666019157685898</v>
+      </c>
+      <c r="U109">
+        <v>7.9521660032603698</v>
+      </c>
+      <c r="V109">
+        <v>5.8624506488922004</v>
+      </c>
+      <c r="W109">
+        <v>5.8730082157919297</v>
+      </c>
+      <c r="X109">
+        <v>4.7943282891268098</v>
+      </c>
+      <c r="Y109">
+        <v>5.6143134777887296</v>
+      </c>
+      <c r="Z109">
+        <v>1.90924489856045</v>
+      </c>
+      <c r="AA109">
+        <v>3.78780630190372</v>
+      </c>
+      <c r="AB109">
+        <v>7.7614400129287002</v>
+      </c>
+      <c r="AC109">
+        <v>1.46013574949253</v>
+      </c>
+      <c r="AD109">
+        <v>0.61790187764541005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="25.5">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110">
+        <v>30.091683223095</v>
+      </c>
+      <c r="E110">
+        <v>11.084275392442899</v>
+      </c>
+      <c r="F110">
+        <v>2.3918282688257899</v>
+      </c>
+      <c r="G110">
+        <v>9.3717019732631197</v>
+      </c>
+      <c r="H110">
+        <v>5.77341978621227</v>
+      </c>
+      <c r="I110">
+        <v>5.69028728293498</v>
+      </c>
+      <c r="J110">
+        <v>3.1145384520478401</v>
+      </c>
+      <c r="K110">
+        <v>5.7750464726253101</v>
+      </c>
+      <c r="L110">
+        <v>1.34523148502693</v>
+      </c>
+      <c r="M110">
+        <v>5.5537316138547101</v>
+      </c>
+      <c r="N110">
+        <v>7.4097685390113499</v>
+      </c>
+      <c r="O110">
+        <v>3.2502011686371501</v>
+      </c>
+      <c r="P110">
+        <v>5.2433257979331804</v>
+      </c>
+      <c r="Q110">
+        <v>9.75628461880063E-2</v>
+      </c>
+      <c r="R110">
+        <v>4.2601307128980501</v>
+      </c>
+      <c r="S110">
+        <v>0.18975102383193801</v>
+      </c>
+      <c r="T110">
+        <v>0.40023975371135501</v>
+      </c>
+      <c r="U110">
+        <v>7.9072761460186403</v>
+      </c>
+      <c r="V110">
+        <v>0.729449746736342</v>
+      </c>
+      <c r="W110">
+        <v>6.7797855825676496</v>
+      </c>
+      <c r="X110">
+        <v>7.40446589423268</v>
+      </c>
+      <c r="Y110">
+        <v>8.3209905477313999</v>
+      </c>
+      <c r="Z110">
+        <v>5.4671682987415098</v>
+      </c>
+      <c r="AA110">
+        <v>1.4699680711798999</v>
+      </c>
+      <c r="AB110">
+        <v>0.69597271490619494</v>
+      </c>
+      <c r="AC110">
+        <v>1.0462691201160199</v>
+      </c>
+      <c r="AD110">
+        <v>2.7037169695933998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" ht="25.5">
+      <c r="A111" s="12"/>
+      <c r="B111" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" ht="25.5">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="25.5">
+      <c r="A113" s="12"/>
+      <c r="B113" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="25.5">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="60">
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
     <mergeCell ref="A93:A98"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
@@ -7458,46 +8584,6 @@
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -7518,111 +8604,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="1024" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>1.4165359383584</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>342</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>0.65687968338236802</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="1">
         <v>0.296208323</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="1">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>2.2667210120000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>490</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>0.38197667499999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="1">
         <v>0.28745091</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>1.4281900000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>267</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>0.2057274</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="1">
         <v>0.16775899999999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D10">
@@ -7642,31 +8728,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D15">
@@ -7686,9 +8772,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D16">
@@ -7708,13 +8794,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18">
@@ -7734,9 +8820,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19">
@@ -7756,31 +8842,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D24">
@@ -7800,9 +8886,9 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D25">
@@ -7823,6 +8909,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -7831,12 +8923,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7872,13 +8958,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D4">
@@ -7892,9 +8978,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
     </row>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t>Date range</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>21-Jan-2016 ::20-Jan-2021</t>
+  </si>
+  <si>
+    <t>22-Jan-2016 ::21-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ114"/>
+  <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:AD110"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -8498,6 +8501,87 @@
       <c r="C111" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D111">
+        <v>33.4</v>
+      </c>
+      <c r="E111">
+        <v>19.677398201998098</v>
+      </c>
+      <c r="F111">
+        <v>1.5154442520237199</v>
+      </c>
+      <c r="G111">
+        <v>0.47987922164708002</v>
+      </c>
+      <c r="H111">
+        <v>18.048527105080399</v>
+      </c>
+      <c r="I111">
+        <v>6.8790684485603396E-2</v>
+      </c>
+      <c r="J111">
+        <v>10.866830747248599</v>
+      </c>
+      <c r="K111">
+        <v>1.4422784516776099</v>
+      </c>
+      <c r="L111">
+        <v>2.9170648321220898</v>
+      </c>
+      <c r="M111">
+        <v>0.49462477373949398</v>
+      </c>
+      <c r="N111">
+        <v>5.6665043979762304</v>
+      </c>
+      <c r="O111">
+        <v>1.8767181167590301</v>
+      </c>
+      <c r="P111">
+        <v>3.52440302001113</v>
+      </c>
+      <c r="Q111">
+        <v>0.94820405400152197</v>
+      </c>
+      <c r="R111">
+        <v>8.8451858653580508</v>
+      </c>
+      <c r="S111">
+        <v>2.7738027362779301</v>
+      </c>
+      <c r="T111">
+        <v>0.19022193383197999</v>
+      </c>
+      <c r="U111">
+        <v>6.4269567580479698</v>
+      </c>
+      <c r="V111">
+        <v>1.6131107794724899</v>
+      </c>
+      <c r="W111">
+        <v>2.2327912340867</v>
+      </c>
+      <c r="X111">
+        <v>5.0853589321272601</v>
+      </c>
+      <c r="Y111">
+        <v>12.3904643452169</v>
+      </c>
+      <c r="Z111">
+        <v>0.408521500234232</v>
+      </c>
+      <c r="AA111">
+        <v>1.3009129234363399</v>
+      </c>
+      <c r="AB111">
+        <v>10.216944173182201</v>
+      </c>
+      <c r="AC111">
+        <v>0.29163151022262501</v>
+      </c>
+      <c r="AD111">
+        <v>1.89027190375638</v>
+      </c>
     </row>
     <row r="112" spans="1:30" ht="25.5">
       <c r="A112" s="12"/>
@@ -8505,6 +8589,87 @@
       <c r="C112" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D112">
+        <v>29.799999999999901</v>
+      </c>
+      <c r="E112">
+        <v>10.285912696499</v>
+      </c>
+      <c r="F112">
+        <v>2.5491174943497601</v>
+      </c>
+      <c r="G112">
+        <v>2.6894667598878601</v>
+      </c>
+      <c r="H112">
+        <v>1.44825057897888</v>
+      </c>
+      <c r="I112">
+        <v>0.29535931803990301</v>
+      </c>
+      <c r="J112">
+        <v>3.41116246288939</v>
+      </c>
+      <c r="K112">
+        <v>3.1194173485509502</v>
+      </c>
+      <c r="L112">
+        <v>0.70292414011443505</v>
+      </c>
+      <c r="M112">
+        <v>1.1642949845195301</v>
+      </c>
+      <c r="N112">
+        <v>2.3915624182927901</v>
+      </c>
+      <c r="O112">
+        <v>0.45271321248714602</v>
+      </c>
+      <c r="P112">
+        <v>32.521942485900098</v>
+      </c>
+      <c r="Q112">
+        <v>0.94802079957635499</v>
+      </c>
+      <c r="R112">
+        <v>5.4626660436800396</v>
+      </c>
+      <c r="S112">
+        <v>0.41109392157516</v>
+      </c>
+      <c r="T112">
+        <v>0.462314666272921</v>
+      </c>
+      <c r="U112">
+        <v>1.9822502906097501</v>
+      </c>
+      <c r="V112">
+        <v>0.68093908796230895</v>
+      </c>
+      <c r="W112">
+        <v>11.7594048371346</v>
+      </c>
+      <c r="X112">
+        <v>5.8376771926014603</v>
+      </c>
+      <c r="Y112">
+        <v>15.4848990853485</v>
+      </c>
+      <c r="Z112">
+        <v>1.5903086159531199</v>
+      </c>
+      <c r="AA112">
+        <v>1.46092259471825</v>
+      </c>
+      <c r="AB112">
+        <v>2.8952700525155199</v>
+      </c>
+      <c r="AC112">
+        <v>1.3286610545473301</v>
+      </c>
+      <c r="AD112">
+        <v>1.49847804784348</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="25.5">
       <c r="A113" s="12"/>
@@ -8522,56 +8687,62 @@
         <v>33</v>
       </c>
     </row>
+    <row r="117" spans="1:3" ht="25.5">
+      <c r="A117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="25.5">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="25.5">
+      <c r="A119" s="12"/>
+      <c r="B119" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="25.5">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="25.5">
+      <c r="A121" s="12"/>
+      <c r="B121" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="25.5">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
+  <mergeCells count="64">
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
     <mergeCell ref="A93:A98"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
@@ -8584,6 +8755,54 @@
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -8909,12 +9128,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -8923,6 +9136,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:C122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:AD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -8671,7 +8671,7 @@
         <v>1.49847804784348</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="25.5">
+    <row r="113" spans="1:30" ht="25.5">
       <c r="A113" s="12"/>
       <c r="B113" s="15" t="s">
         <v>35</v>
@@ -8680,14 +8680,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="25.5">
+    <row r="114" spans="1:30" ht="25.5">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="25.5">
+    <row r="117" spans="1:30" ht="25.5">
       <c r="A117" s="11" t="s">
         <v>58</v>
       </c>
@@ -8697,15 +8697,177 @@
       <c r="C117" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="25.5">
+      <c r="D117">
+        <v>31.459894543635802</v>
+      </c>
+      <c r="E117">
+        <v>18.5937613105846</v>
+      </c>
+      <c r="F117">
+        <v>1.49942198772686</v>
+      </c>
+      <c r="G117">
+        <v>8.3354882886577499</v>
+      </c>
+      <c r="H117">
+        <v>10.168161786263299</v>
+      </c>
+      <c r="I117">
+        <v>3.63141257072634</v>
+      </c>
+      <c r="J117">
+        <v>3.3279260701063702</v>
+      </c>
+      <c r="K117">
+        <v>8.5257875628452098</v>
+      </c>
+      <c r="L117">
+        <v>2.18999681499854</v>
+      </c>
+      <c r="M117">
+        <v>0.66079255642718804</v>
+      </c>
+      <c r="N117">
+        <v>1.7120986144772301</v>
+      </c>
+      <c r="O117">
+        <v>1.04286390106311</v>
+      </c>
+      <c r="P117">
+        <v>1.24604959225402</v>
+      </c>
+      <c r="Q117">
+        <v>0.27036638129784102</v>
+      </c>
+      <c r="R117">
+        <v>1.4629522778995001</v>
+      </c>
+      <c r="S117">
+        <v>9.9485649711311996</v>
+      </c>
+      <c r="T117">
+        <v>0.84205365544404998</v>
+      </c>
+      <c r="U117">
+        <v>10.096078972665699</v>
+      </c>
+      <c r="V117">
+        <v>0.84109573674310401</v>
+      </c>
+      <c r="W117">
+        <v>9.8217621380487508</v>
+      </c>
+      <c r="X117">
+        <v>7.0878702815849701</v>
+      </c>
+      <c r="Y117">
+        <v>1.4627173020584801</v>
+      </c>
+      <c r="Z117">
+        <v>2.2584040824045801</v>
+      </c>
+      <c r="AA117">
+        <v>4.1569504118447798</v>
+      </c>
+      <c r="AB117">
+        <v>6.2380145287178799</v>
+      </c>
+      <c r="AC117">
+        <v>1.48117420540989</v>
+      </c>
+      <c r="AD117">
+        <v>3.1914172969300001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" ht="25.5">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="25.5">
+      <c r="D118">
+        <v>31.459894543635802</v>
+      </c>
+      <c r="E118">
+        <v>11.7453225386335</v>
+      </c>
+      <c r="F118">
+        <v>2.3737019100098098</v>
+      </c>
+      <c r="G118">
+        <v>8.3354882886577499</v>
+      </c>
+      <c r="H118">
+        <v>10.168161786263299</v>
+      </c>
+      <c r="I118">
+        <v>3.63141257072634</v>
+      </c>
+      <c r="J118">
+        <v>3.3279260701063702</v>
+      </c>
+      <c r="K118">
+        <v>8.5257875628452098</v>
+      </c>
+      <c r="L118">
+        <v>2.18999681499854</v>
+      </c>
+      <c r="M118">
+        <v>0.66079255642718804</v>
+      </c>
+      <c r="N118">
+        <v>1.7120986144772301</v>
+      </c>
+      <c r="O118">
+        <v>1.04286390106311</v>
+      </c>
+      <c r="P118">
+        <v>1.24604959225402</v>
+      </c>
+      <c r="Q118">
+        <v>0.27036638129784102</v>
+      </c>
+      <c r="R118">
+        <v>1.4629522778995001</v>
+      </c>
+      <c r="S118">
+        <v>9.9485649711311996</v>
+      </c>
+      <c r="T118">
+        <v>0.84205365544404998</v>
+      </c>
+      <c r="U118">
+        <v>10.096078972665699</v>
+      </c>
+      <c r="V118">
+        <v>0.84109573674310401</v>
+      </c>
+      <c r="W118">
+        <v>9.8217621380487508</v>
+      </c>
+      <c r="X118">
+        <v>7.0878702815849701</v>
+      </c>
+      <c r="Y118">
+        <v>1.4627173020584801</v>
+      </c>
+      <c r="Z118">
+        <v>2.2584040824045801</v>
+      </c>
+      <c r="AA118">
+        <v>4.1569504118447798</v>
+      </c>
+      <c r="AB118">
+        <v>6.2380145287178799</v>
+      </c>
+      <c r="AC118">
+        <v>1.48117420540989</v>
+      </c>
+      <c r="AD118">
+        <v>3.1914172969300001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" ht="25.5">
       <c r="A119" s="12"/>
       <c r="B119" s="14" t="s">
         <v>34</v>
@@ -8713,15 +8875,177 @@
       <c r="C119" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="25.5">
+      <c r="D119">
+        <v>29.599999999999898</v>
+      </c>
+      <c r="E119">
+        <v>17.441330224498302</v>
+      </c>
+      <c r="F119">
+        <v>1.49185868652678</v>
+      </c>
+      <c r="G119">
+        <v>2.2131735371629699</v>
+      </c>
+      <c r="H119">
+        <v>8.7255794817166201</v>
+      </c>
+      <c r="I119">
+        <v>2.6821622452719298</v>
+      </c>
+      <c r="J119">
+        <v>2.6711571208845202</v>
+      </c>
+      <c r="K119">
+        <v>9.7195304822190796</v>
+      </c>
+      <c r="L119">
+        <v>2.20097046268378</v>
+      </c>
+      <c r="M119">
+        <v>1.0507783338008601</v>
+      </c>
+      <c r="N119">
+        <v>7.4071514913996097</v>
+      </c>
+      <c r="O119">
+        <v>2.1942825153477798</v>
+      </c>
+      <c r="P119">
+        <v>0.68888319023443101</v>
+      </c>
+      <c r="Q119">
+        <v>0.46348610234611498</v>
+      </c>
+      <c r="R119">
+        <v>3.0891642703740199</v>
+      </c>
+      <c r="S119">
+        <v>1.4811759324995899</v>
+      </c>
+      <c r="T119">
+        <v>2.56284891575176</v>
+      </c>
+      <c r="U119">
+        <v>8.6573606366628297</v>
+      </c>
+      <c r="V119">
+        <v>1.40042227030698</v>
+      </c>
+      <c r="W119">
+        <v>0.89499490725331599</v>
+      </c>
+      <c r="X119">
+        <v>23.930102522885502</v>
+      </c>
+      <c r="Y119">
+        <v>6.8745099484647199</v>
+      </c>
+      <c r="Z119">
+        <v>1.81697830331054</v>
+      </c>
+      <c r="AA119">
+        <v>1.00761117840908</v>
+      </c>
+      <c r="AB119">
+        <v>1.7095395146918899</v>
+      </c>
+      <c r="AC119">
+        <v>3.23717818406061</v>
+      </c>
+      <c r="AD119">
+        <v>3.3209584522613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" ht="25.5">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="25.5">
+      <c r="D120">
+        <v>27.799999999999901</v>
+      </c>
+      <c r="E120">
+        <v>10.285912696499</v>
+      </c>
+      <c r="F120">
+        <v>2.3546768006541199</v>
+      </c>
+      <c r="G120">
+        <v>1.65028350939709</v>
+      </c>
+      <c r="H120">
+        <v>2.09968751558011</v>
+      </c>
+      <c r="I120">
+        <v>0.90382574626335999</v>
+      </c>
+      <c r="J120">
+        <v>1.06373443281111</v>
+      </c>
+      <c r="K120">
+        <v>15.0806768864361</v>
+      </c>
+      <c r="L120">
+        <v>1.42718498561315</v>
+      </c>
+      <c r="M120">
+        <v>6.7565245602503801</v>
+      </c>
+      <c r="N120">
+        <v>7.8210289279537601</v>
+      </c>
+      <c r="O120">
+        <v>0.235385799737415</v>
+      </c>
+      <c r="P120">
+        <v>0.13344908654881901</v>
+      </c>
+      <c r="Q120">
+        <v>0.66073233234818596</v>
+      </c>
+      <c r="R120">
+        <v>4.5005093083796903E-2</v>
+      </c>
+      <c r="S120">
+        <v>0.28438825605280299</v>
+      </c>
+      <c r="T120">
+        <v>0.63050236986788799</v>
+      </c>
+      <c r="U120">
+        <v>18.0819151193047</v>
+      </c>
+      <c r="V120">
+        <v>1.13043900007137</v>
+      </c>
+      <c r="W120">
+        <v>0.371934486836066</v>
+      </c>
+      <c r="X120">
+        <v>32.721305741341197</v>
+      </c>
+      <c r="Y120">
+        <v>7.5087635519859603E-3</v>
+      </c>
+      <c r="Z120">
+        <v>7.8999426021266403E-3</v>
+      </c>
+      <c r="AA120">
+        <v>2.9055380053674198</v>
+      </c>
+      <c r="AB120">
+        <v>5.6702021231256303</v>
+      </c>
+      <c r="AC120">
+        <v>0.306602093934223</v>
+      </c>
+      <c r="AD120">
+        <v>4.2452219211687597E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" ht="25.5">
       <c r="A121" s="12"/>
       <c r="B121" s="15" t="s">
         <v>35</v>
@@ -8730,7 +9054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="25.5">
+    <row r="122" spans="1:30" ht="25.5">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="7" t="s">
@@ -8739,6 +9063,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -8747,54 +9119,6 @@
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A101:A106"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:B104"/>
@@ -9128,6 +9452,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -9136,12 +9466,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -317,13 +317,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,7 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:AD120"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -804,10 +804,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -896,8 +896,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="25.5">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
@@ -984,8 +984,8 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1074,8 +1074,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="25.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1162,8 +1162,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1252,8 +1252,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="25.5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1345,10 +1345,10 @@
       <c r="C8"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1437,8 +1437,8 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="25.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
@@ -1525,8 +1525,8 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1615,8 +1615,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="25.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1703,8 +1703,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1793,8 +1793,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="25.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
@@ -1881,10 +1881,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1973,8 +1973,8 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="25.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2061,8 +2061,8 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2151,8 +2151,8 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="25.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2239,8 +2239,8 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2329,8 +2329,8 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="25.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="22" spans="1:30" ht="40.5" customHeight="1"/>
     <row r="23" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2510,8 +2510,8 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="25.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
@@ -2598,8 +2598,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2688,8 +2688,8 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="25.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2776,8 +2776,8 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2866,8 +2866,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="25.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2954,10 +2954,10 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3046,8 +3046,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="25.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
@@ -3134,8 +3134,8 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3224,8 +3224,8 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="25.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
@@ -3312,8 +3312,8 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3402,8 +3402,8 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="25.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
@@ -3490,10 +3490,10 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3582,8 +3582,8 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="25.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="7" t="s">
         <v>33</v>
       </c>
@@ -3670,8 +3670,8 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3760,8 +3760,8 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="25.5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
@@ -3848,8 +3848,8 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3938,8 +3938,8 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="25.5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
@@ -4026,10 +4026,10 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -4118,8 +4118,8 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="25.5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="7" t="s">
         <v>33</v>
       </c>
@@ -4206,8 +4206,8 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4296,8 +4296,8 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="25.5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="7" t="s">
         <v>33</v>
       </c>
@@ -4384,8 +4384,8 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -4474,8 +4474,8 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="25.5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
@@ -4562,10 +4562,10 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4654,8 +4654,8 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="25.5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="7" t="s">
         <v>33</v>
       </c>
@@ -4742,8 +4742,8 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -4832,8 +4832,8 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="25.5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="7" t="s">
         <v>33</v>
       </c>
@@ -4920,8 +4920,8 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -5010,8 +5010,8 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="25.5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
@@ -5098,10 +5098,10 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -5190,8 +5190,8 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="25.5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
@@ -5278,8 +5278,8 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -5368,8 +5368,8 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="25.5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="7" t="s">
         <v>33</v>
       </c>
@@ -5456,8 +5456,8 @@
       </c>
     </row>
     <row r="66" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -5546,8 +5546,8 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="25.5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="7" t="s">
         <v>33</v>
       </c>
@@ -5634,10 +5634,10 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -5726,8 +5726,8 @@
       </c>
     </row>
     <row r="71" spans="1:30" ht="25.5">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
@@ -5814,8 +5814,8 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="14" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -5904,8 +5904,8 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="25.5">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
@@ -5992,8 +5992,8 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -6082,8 +6082,8 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="25.5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="7" t="s">
         <v>33</v>
       </c>
@@ -6170,10 +6170,10 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6262,8 +6262,8 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="25.5">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
@@ -6350,8 +6350,8 @@
       </c>
     </row>
     <row r="80" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6440,8 +6440,8 @@
       </c>
     </row>
     <row r="81" spans="1:30" ht="25.5">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
@@ -6528,8 +6528,8 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -6618,8 +6618,8 @@
       </c>
     </row>
     <row r="83" spans="1:30" ht="25.5">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="7" t="s">
         <v>33</v>
       </c>
@@ -6706,10 +6706,10 @@
       </c>
     </row>
     <row r="85" spans="1:30" ht="25.5">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -6798,8 +6798,8 @@
       </c>
     </row>
     <row r="86" spans="1:30" ht="25.5">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
@@ -6886,8 +6886,8 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="25.5">
-      <c r="A87" s="12"/>
-      <c r="B87" s="14" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -6976,8 +6976,8 @@
       </c>
     </row>
     <row r="88" spans="1:30" ht="25.5">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="7" t="s">
         <v>33</v>
       </c>
@@ -7064,8 +7064,8 @@
       </c>
     </row>
     <row r="89" spans="1:30" ht="25.5">
-      <c r="A89" s="12"/>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -7154,8 +7154,8 @@
       </c>
     </row>
     <row r="90" spans="1:30" ht="25.5">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
@@ -7242,10 +7242,10 @@
       </c>
     </row>
     <row r="93" spans="1:30" ht="25.5">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -7334,8 +7334,8 @@
       </c>
     </row>
     <row r="94" spans="1:30" ht="25.5">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="7" t="s">
         <v>33</v>
       </c>
@@ -7422,8 +7422,8 @@
       </c>
     </row>
     <row r="95" spans="1:30" ht="25.5">
-      <c r="A95" s="12"/>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="11"/>
+      <c r="B95" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -7512,8 +7512,8 @@
       </c>
     </row>
     <row r="96" spans="1:30" ht="25.5">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="7" t="s">
         <v>33</v>
       </c>
@@ -7600,8 +7600,8 @@
       </c>
     </row>
     <row r="97" spans="1:30" ht="25.5">
-      <c r="A97" s="12"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="11"/>
+      <c r="B97" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -7690,8 +7690,8 @@
       </c>
     </row>
     <row r="98" spans="1:30" ht="25.5">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="7" t="s">
         <v>33</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>11.054884989267601</v>
       </c>
       <c r="F98">
-        <v>222.63693645131201</v>
+        <v>2.2263693645131202</v>
       </c>
       <c r="G98">
         <v>6.7990506280679197</v>
@@ -7778,10 +7778,10 @@
       </c>
     </row>
     <row r="101" spans="1:30" ht="25.5">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -7870,8 +7870,8 @@
       </c>
     </row>
     <row r="102" spans="1:30" ht="25.5">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="7" t="s">
         <v>33</v>
       </c>
@@ -7958,8 +7958,8 @@
       </c>
     </row>
     <row r="103" spans="1:30" ht="25.5">
-      <c r="A103" s="12"/>
-      <c r="B103" s="14" t="s">
+      <c r="A103" s="11"/>
+      <c r="B103" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -8048,8 +8048,8 @@
       </c>
     </row>
     <row r="104" spans="1:30" ht="25.5">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="7" t="s">
         <v>33</v>
       </c>
@@ -8136,8 +8136,8 @@
       </c>
     </row>
     <row r="105" spans="1:30" ht="25.5">
-      <c r="A105" s="12"/>
-      <c r="B105" s="15" t="s">
+      <c r="A105" s="11"/>
+      <c r="B105" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -8226,8 +8226,8 @@
       </c>
     </row>
     <row r="106" spans="1:30" ht="25.5">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="7" t="s">
         <v>33</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>11.4611296056797</v>
       </c>
       <c r="F106">
-        <v>226.91493174841099</v>
+        <v>2.2691493174841102</v>
       </c>
       <c r="G106">
         <v>6.50651259160996</v>
@@ -8314,10 +8314,10 @@
       </c>
     </row>
     <row r="109" spans="1:30" ht="25.5">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="6" t="s">
@@ -8406,8 +8406,8 @@
       </c>
     </row>
     <row r="110" spans="1:30" ht="25.5">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="7" t="s">
         <v>33</v>
       </c>
@@ -8494,8 +8494,8 @@
       </c>
     </row>
     <row r="111" spans="1:30" ht="25.5">
-      <c r="A111" s="12"/>
-      <c r="B111" s="14" t="s">
+      <c r="A111" s="11"/>
+      <c r="B111" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -8584,8 +8584,8 @@
       </c>
     </row>
     <row r="112" spans="1:30" ht="25.5">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="7" t="s">
         <v>33</v>
       </c>
@@ -8672,8 +8672,8 @@
       </c>
     </row>
     <row r="113" spans="1:30" ht="25.5">
-      <c r="A113" s="12"/>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="11"/>
+      <c r="B113" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -8681,17 +8681,17 @@
       </c>
     </row>
     <row r="114" spans="1:30" ht="25.5">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:30" ht="25.5">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -8780,8 +8780,8 @@
       </c>
     </row>
     <row r="118" spans="1:30" ht="25.5">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="7" t="s">
         <v>33</v>
       </c>
@@ -8868,8 +8868,8 @@
       </c>
     </row>
     <row r="119" spans="1:30" ht="25.5">
-      <c r="A119" s="12"/>
-      <c r="B119" s="14" t="s">
+      <c r="A119" s="11"/>
+      <c r="B119" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -8958,8 +8958,8 @@
       </c>
     </row>
     <row r="120" spans="1:30" ht="25.5">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="7" t="s">
         <v>33</v>
       </c>
@@ -9046,8 +9046,8 @@
       </c>
     </row>
     <row r="121" spans="1:30" ht="25.5">
-      <c r="A121" s="12"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="11"/>
+      <c r="B121" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -9055,62 +9055,14 @@
       </c>
     </row>
     <row r="122" spans="1:30" ht="25.5">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="7" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -9127,6 +9079,54 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -9172,10 +9172,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -9198,8 +9198,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -9223,10 +9223,10 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -9249,8 +9249,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
@@ -9271,10 +9271,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9282,17 +9282,17 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -9315,8 +9315,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
@@ -9337,10 +9337,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -9363,8 +9363,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -9385,10 +9385,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -9396,17 +9396,17 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9429,8 +9429,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
@@ -9452,12 +9452,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -9466,6 +9460,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9501,10 +9501,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -9521,8 +9521,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
   <si>
     <t>Date range</t>
   </si>
@@ -199,6 +199,12 @@
   <si>
     <t>22-Jan-2016 ::21-Jan-2021</t>
   </si>
+  <si>
+    <t>25-Jan-2016 ::22-Jan-2021</t>
+  </si>
+  <si>
+    <t>27-Jan-2016 ::25-Jan-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -317,10 +323,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,10 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ122"/>
+  <dimension ref="A1:AMJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -804,10 +810,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -896,8 +902,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="25.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
@@ -984,8 +990,8 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1074,8 +1080,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="25.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1162,8 +1168,8 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1252,8 +1258,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="25.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1345,10 +1351,10 @@
       <c r="C8"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1437,8 +1443,8 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="25.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
@@ -1525,8 +1531,8 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1615,8 +1621,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="25.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1703,8 +1709,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1793,8 +1799,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="25.5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
@@ -1881,10 +1887,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1973,8 +1979,8 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="25.5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2061,8 +2067,8 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2151,8 +2157,8 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="25.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2239,8 +2245,8 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2329,8 +2335,8 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="25.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
@@ -2418,10 +2424,10 @@
     </row>
     <row r="22" spans="1:30" ht="40.5" customHeight="1"/>
     <row r="23" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2510,8 +2516,8 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="25.5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
@@ -2598,8 +2604,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2688,8 +2694,8 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="25.5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
@@ -2776,8 +2782,8 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2866,8 +2872,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="25.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2954,10 +2960,10 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3046,8 +3052,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="25.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
@@ -3134,8 +3140,8 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3224,8 +3230,8 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="25.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
@@ -3312,8 +3318,8 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3402,8 +3408,8 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="25.5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
@@ -3490,10 +3496,10 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3582,8 +3588,8 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="25.5">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="7" t="s">
         <v>33</v>
       </c>
@@ -3670,8 +3676,8 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3760,8 +3766,8 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="25.5">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
@@ -3848,8 +3854,8 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3938,8 +3944,8 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="25.5">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
@@ -4026,10 +4032,10 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -4118,8 +4124,8 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="25.5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="7" t="s">
         <v>33</v>
       </c>
@@ -4206,8 +4212,8 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -4296,8 +4302,8 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="25.5">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="7" t="s">
         <v>33</v>
       </c>
@@ -4384,8 +4390,8 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -4474,8 +4480,8 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="25.5">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
@@ -4562,10 +4568,10 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4654,8 +4660,8 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="25.5">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="7" t="s">
         <v>33</v>
       </c>
@@ -4742,8 +4748,8 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="13" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -4832,8 +4838,8 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="25.5">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="7" t="s">
         <v>33</v>
       </c>
@@ -4920,8 +4926,8 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="14" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -5010,8 +5016,8 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="25.5">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
@@ -5098,10 +5104,10 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -5190,8 +5196,8 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="25.5">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="7" t="s">
         <v>33</v>
       </c>
@@ -5278,8 +5284,8 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -5368,8 +5374,8 @@
       </c>
     </row>
     <row r="65" spans="1:30" ht="25.5">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="7" t="s">
         <v>33</v>
       </c>
@@ -5456,8 +5462,8 @@
       </c>
     </row>
     <row r="66" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="14" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -5546,8 +5552,8 @@
       </c>
     </row>
     <row r="67" spans="1:30" ht="25.5">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="7" t="s">
         <v>33</v>
       </c>
@@ -5634,10 +5640,10 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -5726,8 +5732,8 @@
       </c>
     </row>
     <row r="71" spans="1:30" ht="25.5">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="7" t="s">
         <v>33</v>
       </c>
@@ -5814,8 +5820,8 @@
       </c>
     </row>
     <row r="72" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="13" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -5904,8 +5910,8 @@
       </c>
     </row>
     <row r="73" spans="1:30" ht="25.5">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
@@ -5992,8 +5998,8 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="14" t="s">
+      <c r="A74" s="12"/>
+      <c r="B74" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -6082,8 +6088,8 @@
       </c>
     </row>
     <row r="75" spans="1:30" ht="25.5">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="7" t="s">
         <v>33</v>
       </c>
@@ -6170,10 +6176,10 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6262,8 +6268,8 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="25.5">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
@@ -6350,8 +6356,8 @@
       </c>
     </row>
     <row r="80" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="13" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6440,8 +6446,8 @@
       </c>
     </row>
     <row r="81" spans="1:30" ht="25.5">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
@@ -6528,8 +6534,8 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="14" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -6618,8 +6624,8 @@
       </c>
     </row>
     <row r="83" spans="1:30" ht="25.5">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>33</v>
       </c>
@@ -6706,10 +6712,10 @@
       </c>
     </row>
     <row r="85" spans="1:30" ht="25.5">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -6798,8 +6804,8 @@
       </c>
     </row>
     <row r="86" spans="1:30" ht="25.5">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="7" t="s">
         <v>33</v>
       </c>
@@ -6886,8 +6892,8 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="25.5">
-      <c r="A87" s="11"/>
-      <c r="B87" s="13" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -6976,8 +6982,8 @@
       </c>
     </row>
     <row r="88" spans="1:30" ht="25.5">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="7" t="s">
         <v>33</v>
       </c>
@@ -7064,8 +7070,8 @@
       </c>
     </row>
     <row r="89" spans="1:30" ht="25.5">
-      <c r="A89" s="11"/>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="12"/>
+      <c r="B89" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -7154,8 +7160,8 @@
       </c>
     </row>
     <row r="90" spans="1:30" ht="25.5">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
@@ -7242,10 +7248,10 @@
       </c>
     </row>
     <row r="93" spans="1:30" ht="25.5">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -7334,8 +7340,8 @@
       </c>
     </row>
     <row r="94" spans="1:30" ht="25.5">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="7" t="s">
         <v>33</v>
       </c>
@@ -7422,8 +7428,8 @@
       </c>
     </row>
     <row r="95" spans="1:30" ht="25.5">
-      <c r="A95" s="11"/>
-      <c r="B95" s="13" t="s">
+      <c r="A95" s="12"/>
+      <c r="B95" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -7512,8 +7518,8 @@
       </c>
     </row>
     <row r="96" spans="1:30" ht="25.5">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="7" t="s">
         <v>33</v>
       </c>
@@ -7600,8 +7606,8 @@
       </c>
     </row>
     <row r="97" spans="1:30" ht="25.5">
-      <c r="A97" s="11"/>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="12"/>
+      <c r="B97" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -7690,8 +7696,8 @@
       </c>
     </row>
     <row r="98" spans="1:30" ht="25.5">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="7" t="s">
         <v>33</v>
       </c>
@@ -7778,10 +7784,10 @@
       </c>
     </row>
     <row r="101" spans="1:30" ht="25.5">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -7870,8 +7876,8 @@
       </c>
     </row>
     <row r="102" spans="1:30" ht="25.5">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="7" t="s">
         <v>33</v>
       </c>
@@ -7958,8 +7964,8 @@
       </c>
     </row>
     <row r="103" spans="1:30" ht="25.5">
-      <c r="A103" s="11"/>
-      <c r="B103" s="13" t="s">
+      <c r="A103" s="12"/>
+      <c r="B103" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -8048,8 +8054,8 @@
       </c>
     </row>
     <row r="104" spans="1:30" ht="25.5">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="7" t="s">
         <v>33</v>
       </c>
@@ -8136,8 +8142,8 @@
       </c>
     </row>
     <row r="105" spans="1:30" ht="25.5">
-      <c r="A105" s="11"/>
-      <c r="B105" s="14" t="s">
+      <c r="A105" s="12"/>
+      <c r="B105" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -8226,8 +8232,8 @@
       </c>
     </row>
     <row r="106" spans="1:30" ht="25.5">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="7" t="s">
         <v>33</v>
       </c>
@@ -8314,10 +8320,10 @@
       </c>
     </row>
     <row r="109" spans="1:30" ht="25.5">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="6" t="s">
@@ -8406,8 +8412,8 @@
       </c>
     </row>
     <row r="110" spans="1:30" ht="25.5">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="7" t="s">
         <v>33</v>
       </c>
@@ -8494,8 +8500,8 @@
       </c>
     </row>
     <row r="111" spans="1:30" ht="25.5">
-      <c r="A111" s="11"/>
-      <c r="B111" s="13" t="s">
+      <c r="A111" s="12"/>
+      <c r="B111" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -8584,8 +8590,8 @@
       </c>
     </row>
     <row r="112" spans="1:30" ht="25.5">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="7" t="s">
         <v>33</v>
       </c>
@@ -8672,26 +8678,188 @@
       </c>
     </row>
     <row r="113" spans="1:30" ht="25.5">
-      <c r="A113" s="11"/>
-      <c r="B113" s="14" t="s">
+      <c r="A113" s="12"/>
+      <c r="B113" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D113">
+        <v>29.907247974865101</v>
+      </c>
+      <c r="E113">
+        <v>17.851405609659199</v>
+      </c>
+      <c r="F113">
+        <v>147.47997188871099</v>
+      </c>
+      <c r="G113">
+        <v>9.6342014684818</v>
+      </c>
+      <c r="H113">
+        <v>9.6342014684818</v>
+      </c>
+      <c r="I113">
+        <v>2.2320005060243799</v>
+      </c>
+      <c r="J113">
+        <v>2.2320005060243799</v>
+      </c>
+      <c r="K113">
+        <v>8.2883467480349999</v>
+      </c>
+      <c r="L113">
+        <v>0.88614578557757995</v>
+      </c>
+      <c r="M113">
+        <v>2.2320005060243799</v>
+      </c>
+      <c r="N113">
+        <v>8.9612741082584009</v>
+      </c>
+      <c r="O113">
+        <v>0.88614578557757995</v>
+      </c>
+      <c r="P113">
+        <v>6.26956466736479</v>
+      </c>
+      <c r="Q113">
+        <v>3.57785522647118</v>
+      </c>
+      <c r="R113">
+        <v>0.88614578557757995</v>
+      </c>
+      <c r="S113">
+        <v>2.2320005060243799</v>
+      </c>
+      <c r="T113">
+        <v>1.5590731458009801</v>
+      </c>
+      <c r="U113">
+        <v>4.2507825866945899</v>
+      </c>
+      <c r="V113">
+        <v>4.9237099469179899</v>
+      </c>
+      <c r="W113">
+        <v>4.2507825866945899</v>
+      </c>
+      <c r="X113">
+        <v>2.2320005060243799</v>
+      </c>
+      <c r="Y113">
+        <v>1.5590731458009801</v>
+      </c>
+      <c r="Z113">
+        <v>1.5590731458009801</v>
+      </c>
+      <c r="AA113">
+        <v>6.9424920275881998</v>
+      </c>
+      <c r="AB113">
+        <v>10.307128828705199</v>
+      </c>
+      <c r="AC113">
+        <v>1.5590731458009801</v>
+      </c>
+      <c r="AD113">
+        <v>2.90492786624778</v>
+      </c>
     </row>
     <row r="114" spans="1:30" ht="25.5">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D114">
+        <v>30.169459280157401</v>
+      </c>
+      <c r="E114">
+        <v>11.479328946522701</v>
+      </c>
+      <c r="F114">
+        <v>2.3162903863132001</v>
+      </c>
+      <c r="G114">
+        <v>6.6746228039002498</v>
+      </c>
+      <c r="H114">
+        <v>6.1730315764535302</v>
+      </c>
+      <c r="I114">
+        <v>2.66189298432651</v>
+      </c>
+      <c r="J114">
+        <v>6.1730315764535302</v>
+      </c>
+      <c r="K114">
+        <v>2.66189298432651</v>
+      </c>
+      <c r="L114">
+        <v>1.1571193019863599</v>
+      </c>
+      <c r="M114">
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="N114">
+        <v>1.1571193019863599</v>
+      </c>
+      <c r="O114">
+        <v>3.6650754392199398</v>
+      </c>
+      <c r="P114">
+        <v>6.6746228039002498</v>
+      </c>
+      <c r="Q114">
+        <v>2.16030175687979</v>
+      </c>
+      <c r="R114">
+        <v>5.1698491215600999</v>
+      </c>
+      <c r="S114">
+        <v>6.1730315764535302</v>
+      </c>
+      <c r="T114">
+        <v>1.65871052943307</v>
+      </c>
+      <c r="U114">
+        <v>6.1730315764535302</v>
+      </c>
+      <c r="V114">
+        <v>2.66189298432651</v>
+      </c>
+      <c r="W114">
+        <v>6.1730315764535302</v>
+      </c>
+      <c r="X114">
+        <v>2.66189298432651</v>
+      </c>
+      <c r="Y114">
+        <v>7.1762140313469702</v>
+      </c>
+      <c r="Z114">
+        <v>2.16030175687979</v>
+      </c>
+      <c r="AA114">
+        <v>3.6650754392199398</v>
+      </c>
+      <c r="AB114">
+        <v>7.1762140313469702</v>
+      </c>
+      <c r="AC114">
+        <v>3.6650754392199398</v>
+      </c>
+      <c r="AD114">
+        <v>2.16030175687979</v>
+      </c>
     </row>
     <row r="117" spans="1:30" ht="25.5">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -8780,8 +8948,8 @@
       </c>
     </row>
     <row r="118" spans="1:30" ht="25.5">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="7" t="s">
         <v>33</v>
       </c>
@@ -8868,8 +9036,8 @@
       </c>
     </row>
     <row r="119" spans="1:30" ht="25.5">
-      <c r="A119" s="11"/>
-      <c r="B119" s="13" t="s">
+      <c r="A119" s="12"/>
+      <c r="B119" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -8958,8 +9126,8 @@
       </c>
     </row>
     <row r="120" spans="1:30" ht="25.5">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="7" t="s">
         <v>33</v>
       </c>
@@ -9046,8 +9214,8 @@
       </c>
     </row>
     <row r="121" spans="1:30" ht="25.5">
-      <c r="A121" s="11"/>
-      <c r="B121" s="14" t="s">
+      <c r="A121" s="12"/>
+      <c r="B121" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -9055,14 +9223,600 @@
       </c>
     </row>
     <row r="122" spans="1:30" ht="25.5">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="7" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="125" spans="1:30" ht="25.5">
+      <c r="A125" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>29.845396793893102</v>
+      </c>
+      <c r="E125">
+        <v>17.8352618662589</v>
+      </c>
+      <c r="F125">
+        <v>1.4726667312680399</v>
+      </c>
+      <c r="G125">
+        <v>0.38451016277466099</v>
+      </c>
+      <c r="H125">
+        <v>3.4043650844992199</v>
+      </c>
+      <c r="I125">
+        <v>7.9018884909006397</v>
+      </c>
+      <c r="J125">
+        <v>3.10037202916818</v>
+      </c>
+      <c r="K125">
+        <v>8.1028894239994393</v>
+      </c>
+      <c r="L125">
+        <v>1.77370684006032</v>
+      </c>
+      <c r="M125">
+        <v>5.7308257188511398</v>
+      </c>
+      <c r="N125">
+        <v>0.466553189166309</v>
+      </c>
+      <c r="O125">
+        <v>0.53752272463620698</v>
+      </c>
+      <c r="P125">
+        <v>5.4519875415384798</v>
+      </c>
+      <c r="Q125">
+        <v>0.71998149140231604</v>
+      </c>
+      <c r="R125">
+        <v>4.1937722093106302</v>
+      </c>
+      <c r="S125">
+        <v>9.0341514255825395</v>
+      </c>
+      <c r="T125">
+        <v>0.97794634406396996</v>
+      </c>
+      <c r="U125">
+        <v>8.5628421131436898</v>
+      </c>
+      <c r="V125">
+        <v>5.8370332804731104</v>
+      </c>
+      <c r="W125">
+        <v>6.1925038791382603</v>
+      </c>
+      <c r="X125">
+        <v>8.7667321482151692</v>
+      </c>
+      <c r="Y125">
+        <v>7.9595453330024801</v>
+      </c>
+      <c r="Z125">
+        <v>0.59345612880644305</v>
+      </c>
+      <c r="AA125">
+        <v>0.63641870814439006</v>
+      </c>
+      <c r="AB125">
+        <v>7.5284485838682302</v>
+      </c>
+      <c r="AC125">
+        <v>1.49804974001071</v>
+      </c>
+      <c r="AD125">
+        <v>0.64449740924338195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" ht="25.5">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126">
+        <v>28.3016953281405</v>
+      </c>
+      <c r="E126">
+        <v>10.5024848968747</v>
+      </c>
+      <c r="F126">
+        <v>2.3538901099012199</v>
+      </c>
+      <c r="G126">
+        <v>2.0695353329286501</v>
+      </c>
+      <c r="H126">
+        <v>5.2558979716077499</v>
+      </c>
+      <c r="I126">
+        <v>1.2447079566343799</v>
+      </c>
+      <c r="J126">
+        <v>4.3382396367990896</v>
+      </c>
+      <c r="K126">
+        <v>7.8592396681394998</v>
+      </c>
+      <c r="L126">
+        <v>1.1788816222349301</v>
+      </c>
+      <c r="M126">
+        <v>7.7273278985883698</v>
+      </c>
+      <c r="N126">
+        <v>3.7641275113683301</v>
+      </c>
+      <c r="O126">
+        <v>8.1463376971792206E-2</v>
+      </c>
+      <c r="P126">
+        <v>6.5467585169496498</v>
+      </c>
+      <c r="Q126">
+        <v>0.159984518273527</v>
+      </c>
+      <c r="R126">
+        <v>6.5906730703365497</v>
+      </c>
+      <c r="S126">
+        <v>2.4678151260794801</v>
+      </c>
+      <c r="T126">
+        <v>2.96178448360723</v>
+      </c>
+      <c r="U126">
+        <v>7.0285998378968904</v>
+      </c>
+      <c r="V126">
+        <v>2.3249820307998901</v>
+      </c>
+      <c r="W126">
+        <v>7.1040033501593802</v>
+      </c>
+      <c r="X126">
+        <v>6.0012145002905601</v>
+      </c>
+      <c r="Y126">
+        <v>4.6715294335021396</v>
+      </c>
+      <c r="Z126">
+        <v>6.2459363532724899</v>
+      </c>
+      <c r="AA126">
+        <v>0.27738134483930199</v>
+      </c>
+      <c r="AB126">
+        <v>5.3543843337422796</v>
+      </c>
+      <c r="AC126">
+        <v>1.0680658409817501</v>
+      </c>
+      <c r="AD126">
+        <v>7.67746628399596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" ht="25.5">
+      <c r="A127" s="12"/>
+      <c r="B127" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127">
+        <v>27.4</v>
+      </c>
+      <c r="E127">
+        <v>16.546903033498399</v>
+      </c>
+      <c r="F127">
+        <v>1.4395443033525599</v>
+      </c>
+      <c r="G127">
+        <v>5.1688907577179704</v>
+      </c>
+      <c r="H127">
+        <v>0.31000384788876501</v>
+      </c>
+      <c r="I127">
+        <v>5.8442578914507903</v>
+      </c>
+      <c r="J127">
+        <v>0.27067028312646502</v>
+      </c>
+      <c r="K127">
+        <v>4.8817197149098996</v>
+      </c>
+      <c r="L127">
+        <v>4.3534199257070796</v>
+      </c>
+      <c r="M127">
+        <v>0.21968582829692801</v>
+      </c>
+      <c r="N127">
+        <v>10.9554713429676</v>
+      </c>
+      <c r="O127">
+        <v>0.93896982618756197</v>
+      </c>
+      <c r="P127">
+        <v>0.112509871654195</v>
+      </c>
+      <c r="Q127">
+        <v>0.28531439534196801</v>
+      </c>
+      <c r="R127">
+        <v>9.5726074116834301</v>
+      </c>
+      <c r="S127">
+        <v>0.78606763260205104</v>
+      </c>
+      <c r="T127">
+        <v>2.9743001536588398</v>
+      </c>
+      <c r="U127">
+        <v>16.9686307461252</v>
+      </c>
+      <c r="V127">
+        <v>1.8467177992933299</v>
+      </c>
+      <c r="W127">
+        <v>2.4824677838460598</v>
+      </c>
+      <c r="X127">
+        <v>17.684601281331702</v>
+      </c>
+      <c r="Y127">
+        <v>1.4121096824774899</v>
+      </c>
+      <c r="Z127">
+        <v>2.1249155320434898</v>
+      </c>
+      <c r="AA127">
+        <v>0.38018865813311398</v>
+      </c>
+      <c r="AB127">
+        <v>8.5161152493232404</v>
+      </c>
+      <c r="AC127">
+        <v>1.66473905501507</v>
+      </c>
+      <c r="AD127">
+        <v>0.245625329217532</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" ht="25.5">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128">
+        <v>31.8</v>
+      </c>
+      <c r="E128">
+        <v>11.180339887498899</v>
+      </c>
+      <c r="F128">
+        <v>2.5240735330017601</v>
+      </c>
+      <c r="G128">
+        <v>0.111840138918903</v>
+      </c>
+      <c r="H128">
+        <v>17.162680658375301</v>
+      </c>
+      <c r="I128">
+        <v>4.5524860269277099</v>
+      </c>
+      <c r="J128">
+        <v>0.46629189514911801</v>
+      </c>
+      <c r="K128">
+        <v>2.62119646498187E-2</v>
+      </c>
+      <c r="L128">
+        <v>8.7641722747500898E-4</v>
+      </c>
+      <c r="M128">
+        <v>1.3737075067236999E-3</v>
+      </c>
+      <c r="N128">
+        <v>8.8892370683818903E-2</v>
+      </c>
+      <c r="O128">
+        <v>5.3081266123910502E-2</v>
+      </c>
+      <c r="P128">
+        <v>34.887094180190303</v>
+      </c>
+      <c r="Q128">
+        <v>0.81754847133651698</v>
+      </c>
+      <c r="R128">
+        <v>4.7574603849127602E-2</v>
+      </c>
+      <c r="S128">
+        <v>4.1242573067102897E-2</v>
+      </c>
+      <c r="T128">
+        <v>2.27790184250772</v>
+      </c>
+      <c r="U128">
+        <v>31.495491345692901</v>
+      </c>
+      <c r="V128">
+        <v>2.4799347877921998E-2</v>
+      </c>
+      <c r="W128">
+        <v>2.8701040610483002E-3</v>
+      </c>
+      <c r="X128">
+        <v>6.5711997479617201</v>
+      </c>
+      <c r="Y128">
+        <v>0.41722175339663198</v>
+      </c>
+      <c r="Z128">
+        <v>5.7930676914654297E-2</v>
+      </c>
+      <c r="AA128" s="10">
+        <v>7.3242642980320504E-5</v>
+      </c>
+      <c r="AB128">
+        <v>0.41019938410927698</v>
+      </c>
+      <c r="AC128">
+        <v>0.36170512656700099</v>
+      </c>
+      <c r="AD128">
+        <v>0.123413154262123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="25.5">
+      <c r="A129" s="12"/>
+      <c r="B129" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="25.5">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="25.5">
+      <c r="A133" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133">
+        <v>28.279012761000001</v>
+      </c>
+      <c r="E133">
+        <v>16.8331405066271</v>
+      </c>
+      <c r="F133">
+        <v>1.4672848926364099</v>
+      </c>
+      <c r="G133">
+        <v>2.0809491494107202</v>
+      </c>
+      <c r="H133">
+        <v>8.5062398072588099</v>
+      </c>
+      <c r="I133">
+        <v>2.2532302316333301</v>
+      </c>
+      <c r="J133">
+        <v>1.96349807893869</v>
+      </c>
+      <c r="K133">
+        <v>9.4554708085964894</v>
+      </c>
+      <c r="L133">
+        <v>0.65080823814181499</v>
+      </c>
+      <c r="M133">
+        <v>1.76585348228616</v>
+      </c>
+      <c r="N133">
+        <v>8.1194867899248102</v>
+      </c>
+      <c r="O133">
+        <v>3.5208706659477</v>
+      </c>
+      <c r="P133">
+        <v>7.2220401580554698</v>
+      </c>
+      <c r="Q133">
+        <v>0.127862491396452</v>
+      </c>
+      <c r="R133">
+        <v>7.4858477609674603</v>
+      </c>
+      <c r="S133">
+        <v>2.0615733028160501</v>
+      </c>
+      <c r="T133">
+        <v>0.74902983994828298</v>
+      </c>
+      <c r="U133">
+        <v>8.2755987566769402</v>
+      </c>
+      <c r="V133">
+        <v>6.1315713595439796</v>
+      </c>
+      <c r="W133">
+        <v>7.4947289562066599</v>
+      </c>
+      <c r="X133">
+        <v>7.05748992555091</v>
+      </c>
+      <c r="Y133">
+        <v>3.5112682357680698</v>
+      </c>
+      <c r="Z133">
+        <v>0.257178674407048</v>
+      </c>
+      <c r="AA133">
+        <v>1.0892109422982701</v>
+      </c>
+      <c r="AB133">
+        <v>0.54271007347869105</v>
+      </c>
+      <c r="AC133">
+        <v>0.76071014813223503</v>
+      </c>
+      <c r="AD133">
+        <v>8.9167721226148799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="25.5">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134">
+        <v>26.878217083487002</v>
+      </c>
+      <c r="E134">
+        <v>9.9590131889751401</v>
+      </c>
+      <c r="F134">
+        <v>2.33941020474585</v>
+      </c>
+      <c r="G134">
+        <v>10.5785541061713</v>
+      </c>
+      <c r="H134">
+        <v>7.7258772027788301E-3</v>
+      </c>
+      <c r="I134">
+        <v>1.6308903452746999</v>
+      </c>
+      <c r="J134">
+        <v>6.3218438757175397</v>
+      </c>
+      <c r="K134">
+        <v>9.3733262329141507</v>
+      </c>
+      <c r="L134">
+        <v>0.116123865781497</v>
+      </c>
+      <c r="M134">
+        <v>2.1425393871155598</v>
+      </c>
+      <c r="N134">
+        <v>2.8663917593632302</v>
+      </c>
+      <c r="O134">
+        <v>4.5135558091075799E-2</v>
+      </c>
+      <c r="P134">
+        <v>9.8395020425064992</v>
+      </c>
+      <c r="Q134">
+        <v>0.37943276683362698</v>
+      </c>
+      <c r="R134">
+        <v>0.76750864295239396</v>
+      </c>
+      <c r="S134">
+        <v>1.9857351582762399</v>
+      </c>
+      <c r="T134">
+        <v>4.41447824526196</v>
+      </c>
+      <c r="U134">
+        <v>10.451989780894699</v>
+      </c>
+      <c r="V134">
+        <v>6.6184199210071002</v>
+      </c>
+      <c r="W134">
+        <v>8.7993483686005103</v>
+      </c>
+      <c r="X134">
+        <v>5.4272873714929197</v>
+      </c>
+      <c r="Y134">
+        <v>3.3950763001488702</v>
+      </c>
+      <c r="Z134">
+        <v>0.375914997846446</v>
+      </c>
+      <c r="AA134">
+        <v>0.92361440926277805</v>
+      </c>
+      <c r="AB134">
+        <v>8.6950291791008603</v>
+      </c>
+      <c r="AC134">
+        <v>2.82673189507247</v>
+      </c>
+      <c r="AD134">
+        <v>2.0173999131106202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="25.5">
+      <c r="A135" s="12"/>
+      <c r="B135" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="25.5">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="25.5">
+      <c r="A137" s="12"/>
+      <c r="B137" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="25.5">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="72">
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -9127,6 +9881,14 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -9172,10 +9934,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -9198,8 +9960,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -9223,10 +9985,10 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -9249,8 +10011,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
@@ -9271,10 +10033,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9282,17 +10044,17 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -9315,8 +10077,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
@@ -9337,10 +10099,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -9363,8 +10125,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -9385,10 +10147,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -9396,17 +10158,17 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9429,8 +10191,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
@@ -9501,10 +10263,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -9521,8 +10283,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136:AD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -9791,6 +9791,87 @@
       <c r="C135" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D135">
+        <v>28.799999999999901</v>
+      </c>
+      <c r="E135">
+        <v>17.441330224498302</v>
+      </c>
+      <c r="F135">
+        <v>1.44599062544986</v>
+      </c>
+      <c r="G135">
+        <v>0.101425951067954</v>
+      </c>
+      <c r="H135">
+        <v>0.82412542455349502</v>
+      </c>
+      <c r="I135">
+        <v>10.1114992795668</v>
+      </c>
+      <c r="J135">
+        <v>7.1204813117023997</v>
+      </c>
+      <c r="K135">
+        <v>2.4961615404627202</v>
+      </c>
+      <c r="L135">
+        <v>2.0630161075033699</v>
+      </c>
+      <c r="M135">
+        <v>2.1991752882523801</v>
+      </c>
+      <c r="N135">
+        <v>1.58487285672738</v>
+      </c>
+      <c r="O135">
+        <v>0.26720985075390902</v>
+      </c>
+      <c r="P135">
+        <v>2.12213365755506</v>
+      </c>
+      <c r="Q135">
+        <v>3.0249382656176</v>
+      </c>
+      <c r="R135">
+        <v>3.4426528683431799</v>
+      </c>
+      <c r="S135">
+        <v>5.2516580507358599</v>
+      </c>
+      <c r="T135">
+        <v>0.45823689705059001</v>
+      </c>
+      <c r="U135">
+        <v>17.095083509769601</v>
+      </c>
+      <c r="V135">
+        <v>0.925922368830006</v>
+      </c>
+      <c r="W135">
+        <v>4.8180147934619404</v>
+      </c>
+      <c r="X135">
+        <v>20.6562369483247</v>
+      </c>
+      <c r="Y135">
+        <v>0.29023912395659002</v>
+      </c>
+      <c r="Z135">
+        <v>0.63070337333846704</v>
+      </c>
+      <c r="AA135">
+        <v>1.3464232391030999</v>
+      </c>
+      <c r="AB135">
+        <v>10.050396776596701</v>
+      </c>
+      <c r="AC135">
+        <v>2.3764391027274798</v>
+      </c>
+      <c r="AD135">
+        <v>0.74295341399849901</v>
+      </c>
     </row>
     <row r="136" spans="1:30" ht="25.5">
       <c r="A136" s="12"/>
@@ -9798,6 +9879,87 @@
       <c r="C136" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D136">
+        <v>26.2</v>
+      </c>
+      <c r="E136">
+        <v>9.8386991009990705</v>
+      </c>
+      <c r="F136">
+        <v>2.2990844386838698</v>
+      </c>
+      <c r="G136">
+        <v>5.1964274382193398</v>
+      </c>
+      <c r="H136">
+        <v>1.77040329932147</v>
+      </c>
+      <c r="I136">
+        <v>0.67864773051640503</v>
+      </c>
+      <c r="J136">
+        <v>0.92742202536572205</v>
+      </c>
+      <c r="K136">
+        <v>1.1012630255475599</v>
+      </c>
+      <c r="L136">
+        <v>0.39166054047027699</v>
+      </c>
+      <c r="M136">
+        <v>0.80062494405651097</v>
+      </c>
+      <c r="N136">
+        <v>2.09040643769662</v>
+      </c>
+      <c r="O136">
+        <v>2.56508346221006</v>
+      </c>
+      <c r="P136">
+        <v>42.648112572738398</v>
+      </c>
+      <c r="Q136">
+        <v>6.0467479441787804</v>
+      </c>
+      <c r="R136">
+        <v>1.67374065248283</v>
+      </c>
+      <c r="S136">
+        <v>0.59704310186193899</v>
+      </c>
+      <c r="T136">
+        <v>3.5880189011152002</v>
+      </c>
+      <c r="U136">
+        <v>6.3986623425204501</v>
+      </c>
+      <c r="V136">
+        <v>5.3796017791539903</v>
+      </c>
+      <c r="W136">
+        <v>0.57420280103350096</v>
+      </c>
+      <c r="X136">
+        <v>9.3213714658815299</v>
+      </c>
+      <c r="Y136">
+        <v>1.30047171387164</v>
+      </c>
+      <c r="Z136">
+        <v>1.2170961966378799</v>
+      </c>
+      <c r="AA136">
+        <v>0.839141804698604</v>
+      </c>
+      <c r="AB136">
+        <v>0.97061498505550703</v>
+      </c>
+      <c r="AC136">
+        <v>1.8288020835329399</v>
+      </c>
+      <c r="AD136">
+        <v>2.0944327518327102</v>
+      </c>
     </row>
     <row r="137" spans="1:30" ht="25.5">
       <c r="A137" s="12"/>
@@ -9817,6 +9979,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -9833,62 +10051,6 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -10214,6 +10376,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -10222,12 +10390,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="63">
   <si>
     <t>Date range</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>27-Jan-2016 ::25-Jan-2021</t>
+  </si>
+  <si>
+    <t>28-Jan-2016 ::27-Jan-2021</t>
+  </si>
+  <si>
+    <t>29-Jan-2016 ::28-Jan-2021</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ138"/>
+  <dimension ref="A1:AMJ154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136:AD136"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150:AD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -9221,6 +9227,87 @@
       <c r="C121" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D121">
+        <v>28.879953055551699</v>
+      </c>
+      <c r="E121">
+        <v>17.432115138187399</v>
+      </c>
+      <c r="F121">
+        <v>1.4513415529323099</v>
+      </c>
+      <c r="G121">
+        <v>3.3524590379636101</v>
+      </c>
+      <c r="H121">
+        <v>7.4663502145684904</v>
+      </c>
+      <c r="I121">
+        <v>4.3809318321148298</v>
+      </c>
+      <c r="J121">
+        <v>5.9236410233416601</v>
+      </c>
+      <c r="K121">
+        <v>6.9521138174928803</v>
+      </c>
+      <c r="L121">
+        <v>2.838222640888</v>
+      </c>
+      <c r="M121">
+        <v>3.8666954350392202</v>
+      </c>
+      <c r="N121">
+        <v>4.3809318321148298</v>
+      </c>
+      <c r="O121">
+        <v>0.78127705258556801</v>
+      </c>
+      <c r="P121">
+        <v>7.4663502145684904</v>
+      </c>
+      <c r="Q121">
+        <v>0.78127705258556801</v>
+      </c>
+      <c r="R121">
+        <v>4.8951682291904399</v>
+      </c>
+      <c r="S121">
+        <v>0.78127705258556801</v>
+      </c>
+      <c r="T121">
+        <v>3.8666954350392202</v>
+      </c>
+      <c r="U121">
+        <v>4.3809318321148298</v>
+      </c>
+      <c r="V121">
+        <v>4.3809318321148298</v>
+      </c>
+      <c r="W121">
+        <v>7.9805866116441004</v>
+      </c>
+      <c r="X121">
+        <v>2.3239862438123899</v>
+      </c>
+      <c r="Y121">
+        <v>2.838222640888</v>
+      </c>
+      <c r="Z121">
+        <v>0.78127705258556801</v>
+      </c>
+      <c r="AA121">
+        <v>6.9521138174928803</v>
+      </c>
+      <c r="AB121">
+        <v>7.9805866116441004</v>
+      </c>
+      <c r="AC121">
+        <v>1.29551344966117</v>
+      </c>
+      <c r="AD121">
+        <v>3.3524590379636101</v>
+      </c>
     </row>
     <row r="122" spans="1:30" ht="25.5">
       <c r="A122" s="12"/>
@@ -9228,6 +9315,87 @@
       <c r="C122" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D122">
+        <v>28.824228508644101</v>
+      </c>
+      <c r="E122">
+        <v>11.0749799486016</v>
+      </c>
+      <c r="F122">
+        <v>2.2793927055219099</v>
+      </c>
+      <c r="G122">
+        <v>5.1568111361917</v>
+      </c>
+      <c r="H122">
+        <v>0.83618072371881602</v>
+      </c>
+      <c r="I122">
+        <v>1.3762595252779199</v>
+      </c>
+      <c r="J122">
+        <v>4.6167323346325899</v>
+      </c>
+      <c r="K122">
+        <v>7.3171263424281401</v>
+      </c>
+      <c r="L122">
+        <v>4.6167323346325899</v>
+      </c>
+      <c r="M122">
+        <v>4.6167323346325899</v>
+      </c>
+      <c r="N122">
+        <v>6.7770475408690301</v>
+      </c>
+      <c r="O122">
+        <v>5.1568111361917</v>
+      </c>
+      <c r="P122">
+        <v>2.9964959299552598</v>
+      </c>
+      <c r="Q122">
+        <v>0.83618072371881602</v>
+      </c>
+      <c r="R122">
+        <v>1.91633832683703</v>
+      </c>
+      <c r="S122">
+        <v>2.4564171283961498</v>
+      </c>
+      <c r="T122">
+        <v>1.3762595252779199</v>
+      </c>
+      <c r="U122">
+        <v>6.23696873930992</v>
+      </c>
+      <c r="V122">
+        <v>1.3762595252779199</v>
+      </c>
+      <c r="W122">
+        <v>6.7770475408690301</v>
+      </c>
+      <c r="X122">
+        <v>8.3972839455463593</v>
+      </c>
+      <c r="Y122">
+        <v>7.8572051439872501</v>
+      </c>
+      <c r="Z122">
+        <v>5.69688993775081</v>
+      </c>
+      <c r="AA122">
+        <v>2.9964959299552598</v>
+      </c>
+      <c r="AB122">
+        <v>7.8572051439872501</v>
+      </c>
+      <c r="AC122">
+        <v>1.3762595252779199</v>
+      </c>
+      <c r="AD122">
+        <v>1.3762595252779199</v>
+      </c>
     </row>
     <row r="125" spans="1:30" ht="25.5">
       <c r="A125" s="11" t="s">
@@ -9595,6 +9763,87 @@
       <c r="C129" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D129">
+        <v>29.185410202694499</v>
+      </c>
+      <c r="E129">
+        <v>17.778028536487</v>
+      </c>
+      <c r="F129">
+        <v>1.44028400844013</v>
+      </c>
+      <c r="G129">
+        <v>6.5583888473410701</v>
+      </c>
+      <c r="H129">
+        <v>9.0540989489143602</v>
+      </c>
+      <c r="I129">
+        <v>2.19089616958781</v>
+      </c>
+      <c r="J129">
+        <v>1.5669686441944799</v>
+      </c>
+      <c r="K129">
+        <v>5.93446132194775</v>
+      </c>
+      <c r="L129">
+        <v>2.8148236949811301</v>
+      </c>
+      <c r="M129">
+        <v>0.94304111880116304</v>
+      </c>
+      <c r="N129">
+        <v>4.06267874576778</v>
+      </c>
+      <c r="O129">
+        <v>4.6866062711611001</v>
+      </c>
+      <c r="P129">
+        <v>9.0540989489143602</v>
+      </c>
+      <c r="Q129">
+        <v>0.94304111880116304</v>
+      </c>
+      <c r="R129">
+        <v>4.06267874576778</v>
+      </c>
+      <c r="S129">
+        <v>4.6866062711611001</v>
+      </c>
+      <c r="T129">
+        <v>0.94304111880116304</v>
+      </c>
+      <c r="U129">
+        <v>9.6780264743076891</v>
+      </c>
+      <c r="V129">
+        <v>1.5669686441944799</v>
+      </c>
+      <c r="W129">
+        <v>5.93446132194775</v>
+      </c>
+      <c r="X129">
+        <v>8.4301714235210401</v>
+      </c>
+      <c r="Y129">
+        <v>1.5669686441944799</v>
+      </c>
+      <c r="Z129">
+        <v>3.4387512203744501</v>
+      </c>
+      <c r="AA129">
+        <v>2.8148236949811301</v>
+      </c>
+      <c r="AB129">
+        <v>0.94304111880116304</v>
+      </c>
+      <c r="AC129">
+        <v>2.8148236949811301</v>
+      </c>
+      <c r="AD129">
+        <v>5.3105337965544201</v>
+      </c>
     </row>
     <row r="130" spans="1:30" ht="25.5">
       <c r="A130" s="12"/>
@@ -9602,6 +9851,87 @@
       <c r="C130" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D130">
+        <v>28.968489168101598</v>
+      </c>
+      <c r="E130">
+        <v>11.0041639053875</v>
+      </c>
+      <c r="F130">
+        <v>2.3071711205311698</v>
+      </c>
+      <c r="G130">
+        <v>3.9623391405586301</v>
+      </c>
+      <c r="H130">
+        <v>7.2315795582871596</v>
+      </c>
+      <c r="I130">
+        <v>1.7828455287396101</v>
+      </c>
+      <c r="J130">
+        <v>1.2379721257848499</v>
+      </c>
+      <c r="K130">
+        <v>6.1418327523776499</v>
+      </c>
+      <c r="L130">
+        <v>1.2379721257848499</v>
+      </c>
+      <c r="M130">
+        <v>4.5072125435133801</v>
+      </c>
+      <c r="N130">
+        <v>2.87259233464912</v>
+      </c>
+      <c r="O130">
+        <v>1.2379721257848499</v>
+      </c>
+      <c r="P130">
+        <v>6.6867061553324101</v>
+      </c>
+      <c r="Q130">
+        <v>3.9623391405586301</v>
+      </c>
+      <c r="R130">
+        <v>7.7764529612419198</v>
+      </c>
+      <c r="S130">
+        <v>2.3277189316943598</v>
+      </c>
+      <c r="T130">
+        <v>0.69309872283009999</v>
+      </c>
+      <c r="U130">
+        <v>7.7764529612419198</v>
+      </c>
+      <c r="V130">
+        <v>2.87259233464912</v>
+      </c>
+      <c r="W130">
+        <v>6.6867061553324101</v>
+      </c>
+      <c r="X130">
+        <v>1.2379721257848499</v>
+      </c>
+      <c r="Y130">
+        <v>5.0520859464681402</v>
+      </c>
+      <c r="Z130">
+        <v>2.87259233464912</v>
+      </c>
+      <c r="AA130">
+        <v>2.87259233464912</v>
+      </c>
+      <c r="AB130">
+        <v>8.3213263641966702</v>
+      </c>
+      <c r="AC130">
+        <v>2.87259233464912</v>
+      </c>
+      <c r="AD130">
+        <v>7.7764529612419198</v>
+      </c>
     </row>
     <row r="133" spans="1:30" ht="25.5">
       <c r="A133" s="11" t="s">
@@ -9969,6 +10299,87 @@
       <c r="C137" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D137">
+        <v>28.831792813462901</v>
+      </c>
+      <c r="E137">
+        <v>18.088853506776498</v>
+      </c>
+      <c r="F137">
+        <v>1.39598636276218</v>
+      </c>
+      <c r="G137">
+        <v>5.6187251714955302</v>
+      </c>
+      <c r="H137">
+        <v>8.3845508949790801</v>
+      </c>
+      <c r="I137">
+        <v>4.51239488210211</v>
+      </c>
+      <c r="J137">
+        <v>3.4060645927086899</v>
+      </c>
+      <c r="K137">
+        <v>4.51239488210211</v>
+      </c>
+      <c r="L137">
+        <v>0.64023886922514195</v>
+      </c>
+      <c r="M137">
+        <v>1.7465691586185601</v>
+      </c>
+      <c r="N137">
+        <v>5.0655600267988197</v>
+      </c>
+      <c r="O137">
+        <v>1.19340401392185</v>
+      </c>
+      <c r="P137">
+        <v>8.3845508949790801</v>
+      </c>
+      <c r="Q137">
+        <v>5.0655600267988197</v>
+      </c>
+      <c r="R137">
+        <v>6.7250554608889397</v>
+      </c>
+      <c r="S137">
+        <v>4.51239488210211</v>
+      </c>
+      <c r="T137">
+        <v>7.8313857502823696</v>
+      </c>
+      <c r="U137">
+        <v>5.6187251714955302</v>
+      </c>
+      <c r="V137">
+        <v>1.19340401392185</v>
+      </c>
+      <c r="W137">
+        <v>7.27822060558566</v>
+      </c>
+      <c r="X137">
+        <v>5.6187251714955302</v>
+      </c>
+      <c r="Y137">
+        <v>4.51239488210211</v>
+      </c>
+      <c r="Z137">
+        <v>0.64023886922514195</v>
+      </c>
+      <c r="AA137">
+        <v>2.2997343033152702</v>
+      </c>
+      <c r="AB137">
+        <v>0.64023886922514195</v>
+      </c>
+      <c r="AC137">
+        <v>2.2997343033152702</v>
+      </c>
+      <c r="AD137">
+        <v>2.2997343033152702</v>
+      </c>
     </row>
     <row r="138" spans="1:30" ht="25.5">
       <c r="A138" s="12"/>
@@ -9976,9 +10387,514 @@
       <c r="C138" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D138">
+        <v>28.075746940593799</v>
+      </c>
+      <c r="E138">
+        <v>10.7088976947016</v>
+      </c>
+      <c r="F138">
+        <v>2.2874200164143401</v>
+      </c>
+      <c r="G138">
+        <v>4.3448262268312297</v>
+      </c>
+      <c r="H138">
+        <v>3.1231606714170299</v>
+      </c>
+      <c r="I138">
+        <v>1.2906623382957401</v>
+      </c>
+      <c r="J138">
+        <v>8.6206556707809199</v>
+      </c>
+      <c r="K138">
+        <v>8.0098228930738191</v>
+      </c>
+      <c r="L138">
+        <v>1.2906623382957401</v>
+      </c>
+      <c r="M138">
+        <v>4.9556590045383304</v>
+      </c>
+      <c r="N138">
+        <v>7.3989901153667201</v>
+      </c>
+      <c r="O138">
+        <v>1.2906623382957401</v>
+      </c>
+      <c r="P138">
+        <v>9.2314884484880206</v>
+      </c>
+      <c r="Q138">
+        <v>0.67982956058864596</v>
+      </c>
+      <c r="R138">
+        <v>3.1231606714170299</v>
+      </c>
+      <c r="S138">
+        <v>9.2314884484880206</v>
+      </c>
+      <c r="T138">
+        <v>0.67982956058864596</v>
+      </c>
+      <c r="U138">
+        <v>6.1773245599525302</v>
+      </c>
+      <c r="V138">
+        <v>2.5123278937099398</v>
+      </c>
+      <c r="W138">
+        <v>3.1231606714170299</v>
+      </c>
+      <c r="X138">
+        <v>8.6206556707809199</v>
+      </c>
+      <c r="Y138">
+        <v>8.0098228930738191</v>
+      </c>
+      <c r="Z138">
+        <v>1.9014951160028399</v>
+      </c>
+      <c r="AA138">
+        <v>1.9014951160028399</v>
+      </c>
+      <c r="AB138">
+        <v>0.67982956058864596</v>
+      </c>
+      <c r="AC138">
+        <v>1.2906623382957401</v>
+      </c>
+      <c r="AD138">
+        <v>2.5123278937099398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="25.5">
+      <c r="A141" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141">
+        <v>31.048160506621901</v>
+      </c>
+      <c r="E141">
+        <v>18.697949380428799</v>
+      </c>
+      <c r="F141">
+        <v>1.46904668248663</v>
+      </c>
+      <c r="G141">
+        <v>7.6785699456160303</v>
+      </c>
+      <c r="H141">
+        <v>10.861913953712101</v>
+      </c>
+      <c r="I141">
+        <v>4.2925236505914501</v>
+      </c>
+      <c r="J141">
+        <v>2.8618134866239702</v>
+      </c>
+      <c r="K141">
+        <v>4.0146161828394202</v>
+      </c>
+      <c r="L141">
+        <v>1.2274781280207301</v>
+      </c>
+      <c r="M141">
+        <v>3.4065760178950701</v>
+      </c>
+      <c r="N141">
+        <v>4.2967945715095199</v>
+      </c>
+      <c r="O141">
+        <v>5.4319097939441798</v>
+      </c>
+      <c r="P141">
+        <v>10.4768036241878</v>
+      </c>
+      <c r="Q141">
+        <v>0.23790082170861401</v>
+      </c>
+      <c r="R141">
+        <v>3.5117143479375401</v>
+      </c>
+      <c r="S141">
+        <v>3.52517755679873</v>
+      </c>
+      <c r="T141">
+        <v>2.1328325034439501</v>
+      </c>
+      <c r="U141">
+        <v>3.4273878833355602</v>
+      </c>
+      <c r="V141">
+        <v>5.6026403554339903E-2</v>
+      </c>
+      <c r="W141">
+        <v>1.20001255457504</v>
+      </c>
+      <c r="X141">
+        <v>9.9313229332774799</v>
+      </c>
+      <c r="Y141">
+        <v>6.5487529030751599</v>
+      </c>
+      <c r="Z141">
+        <v>1.02251627495349</v>
+      </c>
+      <c r="AA141">
+        <v>2.8631162117386899</v>
+      </c>
+      <c r="AB141">
+        <v>10.040776942640701</v>
+      </c>
+      <c r="AC141">
+        <v>0.20491518276145601</v>
+      </c>
+      <c r="AD141">
+        <v>0.74854812525875503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="25.5">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142">
+        <v>29.894563164898901</v>
+      </c>
+      <c r="E142">
+        <v>11.3109013373178</v>
+      </c>
+      <c r="F142">
+        <v>2.3264780038421602</v>
+      </c>
+      <c r="G142">
+        <v>3.7632624491503899</v>
+      </c>
+      <c r="H142">
+        <v>6.9642569165450698</v>
+      </c>
+      <c r="I142">
+        <v>9.9855360127929202</v>
+      </c>
+      <c r="J142">
+        <v>7.41085622494374</v>
+      </c>
+      <c r="K142">
+        <v>8.1809350697252601</v>
+      </c>
+      <c r="L142">
+        <v>1.86415521561727</v>
+      </c>
+      <c r="M142">
+        <v>0.463928116024382</v>
+      </c>
+      <c r="N142">
+        <v>5.7687975245332099</v>
+      </c>
+      <c r="O142">
+        <v>0.89514579762486302</v>
+      </c>
+      <c r="P142">
+        <v>10.0689418526135</v>
+      </c>
+      <c r="Q142">
+        <v>1.4899012529142699</v>
+      </c>
+      <c r="R142">
+        <v>4.8729514574073898</v>
+      </c>
+      <c r="S142">
+        <v>2.86440744338528</v>
+      </c>
+      <c r="T142">
+        <v>0.40960481504548502</v>
+      </c>
+      <c r="U142">
+        <v>11.0530610219802</v>
+      </c>
+      <c r="V142">
+        <v>1.92843965337704</v>
+      </c>
+      <c r="W142">
+        <v>1.38116275591674E-2</v>
+      </c>
+      <c r="X142">
+        <v>4.7104521832492097</v>
+      </c>
+      <c r="Y142">
+        <v>2.37915257622201</v>
+      </c>
+      <c r="Z142">
+        <v>0.69739887255963395</v>
+      </c>
+      <c r="AA142">
+        <v>0.71528213316108702</v>
+      </c>
+      <c r="AB142">
+        <v>9.9618442949038197</v>
+      </c>
+      <c r="AC142">
+        <v>1.74215051684276</v>
+      </c>
+      <c r="AD142">
+        <v>1.79572697182184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="25.5">
+      <c r="A143" s="12"/>
+      <c r="B143" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="25.5">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="25.5">
+      <c r="A145" s="12"/>
+      <c r="B145" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="25.5">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="25.5">
+      <c r="A149" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149">
+        <v>29.0033733162673</v>
+      </c>
+      <c r="E149">
+        <v>17.6684103777018</v>
+      </c>
+      <c r="F149">
+        <v>1.4389168449671399</v>
+      </c>
+      <c r="G149">
+        <v>8.4941639037863101</v>
+      </c>
+      <c r="H149">
+        <v>7.78784650118883</v>
+      </c>
+      <c r="I149">
+        <v>6.4288009907120598</v>
+      </c>
+      <c r="J149">
+        <v>8.3785403807861094</v>
+      </c>
+      <c r="K149">
+        <v>5.6745391956949103</v>
+      </c>
+      <c r="L149">
+        <v>0.74745933145186305</v>
+      </c>
+      <c r="M149">
+        <v>2.12276300595643</v>
+      </c>
+      <c r="N149">
+        <v>1.18498916874866</v>
+      </c>
+      <c r="O149">
+        <v>1.9548882228353901</v>
+      </c>
+      <c r="P149">
+        <v>7.0433845890905404</v>
+      </c>
+      <c r="Q149">
+        <v>0.60193230926021901</v>
+      </c>
+      <c r="R149">
+        <v>4.6759433919544398</v>
+      </c>
+      <c r="S149">
+        <v>0.43712332962118799</v>
+      </c>
+      <c r="T149">
+        <v>0.53253685824388697</v>
+      </c>
+      <c r="U149">
+        <v>5.8189712306670502</v>
+      </c>
+      <c r="V149">
+        <v>3.65153834274131</v>
+      </c>
+      <c r="W149">
+        <v>5.9875467012085997</v>
+      </c>
+      <c r="X149">
+        <v>8.2899257774099695</v>
+      </c>
+      <c r="Y149">
+        <v>7.7125303059791497</v>
+      </c>
+      <c r="Z149">
+        <v>0.427307532726865</v>
+      </c>
+      <c r="AA149">
+        <v>4.6158580705315497</v>
+      </c>
+      <c r="AB149">
+        <v>5.4085829341973204</v>
+      </c>
+      <c r="AC149">
+        <v>0.64563277536275099</v>
+      </c>
+      <c r="AD149">
+        <v>1.3771951498445101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" ht="25.5">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150">
+        <v>29.449503903422801</v>
+      </c>
+      <c r="E150">
+        <v>11.3669398837446</v>
+      </c>
+      <c r="F150">
+        <v>2.2758547302970702</v>
+      </c>
+      <c r="G150">
+        <v>1.91135119545141</v>
+      </c>
+      <c r="H150">
+        <v>8.7159404544612595</v>
+      </c>
+      <c r="I150">
+        <v>1.21827080206764</v>
+      </c>
+      <c r="J150">
+        <v>8.2586150457964305</v>
+      </c>
+      <c r="K150">
+        <v>3.7693095036965398</v>
+      </c>
+      <c r="L150">
+        <v>1.3364824109470901</v>
+      </c>
+      <c r="M150">
+        <v>1.0262890806492699</v>
+      </c>
+      <c r="N150">
+        <v>3.0791478633563898</v>
+      </c>
+      <c r="O150">
+        <v>2.5200926183614598</v>
+      </c>
+      <c r="P150">
+        <v>6.7136609527052</v>
+      </c>
+      <c r="Q150">
+        <v>1.2134003140424701</v>
+      </c>
+      <c r="R150">
+        <v>0.603823961115034</v>
+      </c>
+      <c r="S150">
+        <v>2.68956994095559</v>
+      </c>
+      <c r="T150">
+        <v>0.80874273355994297</v>
+      </c>
+      <c r="U150">
+        <v>8.55915281671248</v>
+      </c>
+      <c r="V150">
+        <v>1.6154273854061301</v>
+      </c>
+      <c r="W150">
+        <v>9.9164524725486203</v>
+      </c>
+      <c r="X150">
+        <v>7.1044370858483203</v>
+      </c>
+      <c r="Y150">
+        <v>5.47567598991722</v>
+      </c>
+      <c r="Z150">
+        <v>7.7832523664216096</v>
+      </c>
+      <c r="AA150">
+        <v>3.7219310652836999</v>
+      </c>
+      <c r="AB150">
+        <v>7.5641390168057301</v>
+      </c>
+      <c r="AC150">
+        <v>0.43321488256406099</v>
+      </c>
+      <c r="AD150">
+        <v>3.9616200413263201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" ht="25.5">
+      <c r="A151" s="12"/>
+      <c r="B151" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" ht="25.5">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" ht="25.5">
+      <c r="A153" s="12"/>
+      <c r="B153" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="25.5">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="80">
     <mergeCell ref="A125:A130"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="B127:B128"/>
@@ -10051,6 +10967,14 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -712,7 +712,7 @@
   <dimension ref="A1:AMJ154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150:AD150"/>
+      <selection activeCell="D144" sqref="D144:AD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -10657,6 +10657,87 @@
       <c r="C143" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D143">
+        <v>32.4</v>
+      </c>
+      <c r="E143">
+        <v>19.230184606498099</v>
+      </c>
+      <c r="F143">
+        <v>1.4986855607335801</v>
+      </c>
+      <c r="G143">
+        <v>0.33932501576237301</v>
+      </c>
+      <c r="H143">
+        <v>20.522442710786699</v>
+      </c>
+      <c r="I143">
+        <v>3.7036488937246799</v>
+      </c>
+      <c r="J143">
+        <v>0.114215457801982</v>
+      </c>
+      <c r="K143">
+        <v>2.5027317567551202</v>
+      </c>
+      <c r="L143">
+        <v>1.25995612926709</v>
+      </c>
+      <c r="M143">
+        <v>1.3278546727006499</v>
+      </c>
+      <c r="N143">
+        <v>5.9548035464481996</v>
+      </c>
+      <c r="O143">
+        <v>1.09191452766946E-3</v>
+      </c>
+      <c r="P143">
+        <v>11.3405657118884</v>
+      </c>
+      <c r="Q143">
+        <v>1.14517970319136E-4</v>
+      </c>
+      <c r="R143">
+        <v>8.9617682730160002</v>
+      </c>
+      <c r="S143">
+        <v>5.7914724204563299</v>
+      </c>
+      <c r="T143">
+        <v>1.95140945999565E-2</v>
+      </c>
+      <c r="U143">
+        <v>31.8159510055014</v>
+      </c>
+      <c r="V143">
+        <v>0.92161746195057703</v>
+      </c>
+      <c r="W143">
+        <v>0.34080418073005703</v>
+      </c>
+      <c r="X143">
+        <v>3.56403444877466</v>
+      </c>
+      <c r="Y143">
+        <v>2.77979964748593E-2</v>
+      </c>
+      <c r="Z143">
+        <v>2.4501347336120201E-2</v>
+      </c>
+      <c r="AA143">
+        <v>0.101448412129026</v>
+      </c>
+      <c r="AB143">
+        <v>1.3263444133776301</v>
+      </c>
+      <c r="AC143">
+        <v>2.3361331274049602E-2</v>
+      </c>
+      <c r="AD143">
+        <v>1.4634286745936E-2</v>
+      </c>
     </row>
     <row r="144" spans="1:30" ht="25.5">
       <c r="A144" s="12"/>
@@ -10664,6 +10745,87 @@
       <c r="C144" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D144">
+        <v>29.4</v>
+      </c>
+      <c r="E144">
+        <v>11.180339887498899</v>
+      </c>
+      <c r="F144">
+        <v>2.3094110071617799</v>
+      </c>
+      <c r="G144">
+        <v>0.24425795118316801</v>
+      </c>
+      <c r="H144">
+        <v>6.2339435565716403</v>
+      </c>
+      <c r="I144">
+        <v>1.0765207550598901</v>
+      </c>
+      <c r="J144">
+        <v>3.7583630380071703E-2</v>
+      </c>
+      <c r="K144">
+        <v>0.77572273231609701</v>
+      </c>
+      <c r="L144">
+        <v>2.1850480339345402</v>
+      </c>
+      <c r="M144">
+        <v>1.34874800759287E-2</v>
+      </c>
+      <c r="N144">
+        <v>0.27639656615988001</v>
+      </c>
+      <c r="O144">
+        <v>2.5700181775941902</v>
+      </c>
+      <c r="P144">
+        <v>0.17489096894439701</v>
+      </c>
+      <c r="Q144">
+        <v>0.18847454221729501</v>
+      </c>
+      <c r="R144">
+        <v>7.7602897594493703</v>
+      </c>
+      <c r="S144">
+        <v>7.5180773328841904E-2</v>
+      </c>
+      <c r="T144">
+        <v>2.57616921456531E-2</v>
+      </c>
+      <c r="U144">
+        <v>60.688486750165403</v>
+      </c>
+      <c r="V144">
+        <v>3.0814528283815101E-2</v>
+      </c>
+      <c r="W144">
+        <v>5.2458401500355496</v>
+      </c>
+      <c r="X144">
+        <v>0.40866130437794501</v>
+      </c>
+      <c r="Y144">
+        <v>3.5966822649994699</v>
+      </c>
+      <c r="Z144">
+        <v>5.3796160712800001</v>
+      </c>
+      <c r="AA144">
+        <v>7.9870916822942895E-2</v>
+      </c>
+      <c r="AB144">
+        <v>9.0051181790653301E-2</v>
+      </c>
+      <c r="AC144">
+        <v>1.5530716029132801</v>
+      </c>
+      <c r="AD144">
+        <v>1.28932860996985</v>
+      </c>
     </row>
     <row r="145" spans="1:30" ht="25.5">
       <c r="A145" s="12"/>
@@ -10895,62 +11057,14 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -10967,14 +11081,62 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -11300,12 +11462,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -11314,6 +11470,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/window-sliding/SlidingWindow_Summary.xlsx
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144:AD144"/>
+    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152:AD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -11031,6 +11031,87 @@
       <c r="C151" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="D151">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E151">
+        <v>20.571825392998001</v>
+      </c>
+      <c r="F151">
+        <v>1.4203892674466001</v>
+      </c>
+      <c r="G151">
+        <v>0.16503876926533301</v>
+      </c>
+      <c r="H151">
+        <v>17.980010647263502</v>
+      </c>
+      <c r="I151">
+        <v>6.0661709698062802</v>
+      </c>
+      <c r="J151">
+        <v>1.9228857245865301</v>
+      </c>
+      <c r="K151">
+        <v>4.8464364967439</v>
+      </c>
+      <c r="L151">
+        <v>1.7730378505561801E-3</v>
+      </c>
+      <c r="M151">
+        <v>4.0687800887385502E-2</v>
+      </c>
+      <c r="N151">
+        <v>0.465337210816411</v>
+      </c>
+      <c r="O151">
+        <v>1.1879316188094999</v>
+      </c>
+      <c r="P151">
+        <v>20.546917276581301</v>
+      </c>
+      <c r="Q151">
+        <v>1.93795749788085E-2</v>
+      </c>
+      <c r="R151">
+        <v>0.16841323763600299</v>
+      </c>
+      <c r="S151">
+        <v>0.19219714062266699</v>
+      </c>
+      <c r="T151">
+        <v>0.888092793463929</v>
+      </c>
+      <c r="U151">
+        <v>0.70624658551724795</v>
+      </c>
+      <c r="V151">
+        <v>3.7804533136634699</v>
+      </c>
+      <c r="W151">
+        <v>23.478712594694699</v>
+      </c>
+      <c r="X151">
+        <v>0.27334075389674101</v>
+      </c>
+      <c r="Y151">
+        <v>0.14427599861510801</v>
+      </c>
+      <c r="Z151">
+        <v>1.43680071419964E-3</v>
+      </c>
+      <c r="AA151">
+        <v>1.43313437760116</v>
+      </c>
+      <c r="AB151">
+        <v>15.313035561293701</v>
+      </c>
+      <c r="AC151">
+        <v>0.37483518122634901</v>
+      </c>
+      <c r="AD151">
+        <v>3.2565334649082298E-3</v>
+      </c>
     </row>
     <row r="152" spans="1:30" ht="25.5">
       <c r="A152" s="12"/>
@@ -11038,6 +11119,87 @@
       <c r="C152" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D152">
+        <v>30.599999999999898</v>
+      </c>
+      <c r="E152">
+        <v>12.521980673998801</v>
+      </c>
+      <c r="F152">
+        <v>2.1578055982872901</v>
+      </c>
+      <c r="G152">
+        <v>1.7470995357282499</v>
+      </c>
+      <c r="H152">
+        <v>13.721308729269101</v>
+      </c>
+      <c r="I152">
+        <v>12.2843124055102</v>
+      </c>
+      <c r="J152">
+        <v>7.4690093141465796</v>
+      </c>
+      <c r="K152">
+        <v>2.43783414387162</v>
+      </c>
+      <c r="L152">
+        <v>1.8133414352678401</v>
+      </c>
+      <c r="M152">
+        <v>1.0422543878415</v>
+      </c>
+      <c r="N152">
+        <v>7.5988926944786401</v>
+      </c>
+      <c r="O152">
+        <v>2.6397568371213298</v>
+      </c>
+      <c r="P152">
+        <v>1.36006577657271</v>
+      </c>
+      <c r="Q152">
+        <v>0.32978004599691302</v>
+      </c>
+      <c r="R152">
+        <v>0.57513838121487004</v>
+      </c>
+      <c r="S152">
+        <v>1.1632576035667801</v>
+      </c>
+      <c r="T152">
+        <v>1.2859904712562999</v>
+      </c>
+      <c r="U152">
+        <v>13.0793681470743</v>
+      </c>
+      <c r="V152">
+        <v>2.2210594381169</v>
+      </c>
+      <c r="W152">
+        <v>3.7870937116259502</v>
+      </c>
+      <c r="X152">
+        <v>0.46689457155615499</v>
+      </c>
+      <c r="Y152">
+        <v>5.5315983897004397</v>
+      </c>
+      <c r="Z152">
+        <v>0.23768558031873199</v>
+      </c>
+      <c r="AA152">
+        <v>2.0240334587625499</v>
+      </c>
+      <c r="AB152">
+        <v>5.4883878269386503</v>
+      </c>
+      <c r="AC152">
+        <v>7.4432653062644203</v>
+      </c>
+      <c r="AD152">
+        <v>4.2525718077991002</v>
+      </c>
     </row>
     <row r="153" spans="1:30" ht="25.5">
       <c r="A153" s="12"/>
@@ -11057,14 +11219,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
     <mergeCell ref="A117:A122"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B119:B120"/>
@@ -11081,62 +11291,14 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -11462,6 +11624,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A15:A16"/>
@@ -11470,12 +11638,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
